--- a/EconomicProject/Examples/Report_E4.xlsx
+++ b/EconomicProject/Examples/Report_E4.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>3629:3974</t>
+    <t>3597:3948</t>
   </si>
   <si>
-    <t>3974:4318</t>
+    <t>3948:4299</t>
   </si>
   <si>
-    <t>4318:4663</t>
+    <t>4299:4649</t>
   </si>
   <si>
-    <t>4663:5008</t>
+    <t>4649:5000</t>
   </si>
   <si>
-    <t>5008:5352</t>
+    <t>5000:5351</t>
   </si>
   <si>
-    <t>5352:5697</t>
+    <t>5351:5701</t>
   </si>
   <si>
-    <t>5697:6042</t>
+    <t>5701:6052</t>
   </si>
   <si>
-    <t>6042:6386</t>
+    <t>6052:6403</t>
   </si>
   <si>
-    <t>6386:6731</t>
+    <t>6403:6754</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3629:3974</c:v>
+                  <c:v>3597:3948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3974:4318</c:v>
+                  <c:v>3948:4299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4318:4663</c:v>
+                  <c:v>4299:4649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4663:5008</c:v>
+                  <c:v>4649:5000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5008:5352</c:v>
+                  <c:v>5000:5351</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5352:5697</c:v>
+                  <c:v>5351:5701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5697:6042</c:v>
+                  <c:v>5701:6052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6042:6386</c:v>
+                  <c:v>6052:6403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6386:6731</c:v>
+                  <c:v>6403:6754</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,28 +3542,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37</c:v>
@@ -24142,13 +24142,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>5785.890194398726</v>
+        <v>6607.73380992514</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24156,13 +24156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>5099.055417150931</v>
+        <v>5323.488713413974</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24170,13 +24170,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>5576.476632082316</v>
+        <v>4945.120216196222</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24184,13 +24184,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>4867.14429867052</v>
+        <v>5624.085382122106</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24198,13 +24198,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>4842.638432645869</v>
+        <v>6115.38313070396</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24212,13 +24212,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>4445.614353473949</v>
+        <v>4898.827946550307</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24226,13 +24226,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>5492.233021194211</v>
+        <v>4802.921017643466</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24240,13 +24240,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>4931.337251923661</v>
+        <v>4456.980954400206</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24254,7 +24254,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>5305.74344513064</v>
+        <v>5244.660244107245</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
@@ -24268,7 +24268,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>4163.986740949432</v>
+        <v>4339.069121858277</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>5355.716898898538</v>
+        <v>4778.542344567212</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>4044.060777681386</v>
+        <v>6315.81451819013</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>5293.220981068624</v>
+        <v>4974.307692554573</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>4144.011991058166</v>
+        <v>5836.820935576021</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24308,7 +24308,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>5535.591362759197</v>
+        <v>5636.855543136574</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>5448.567263800839</v>
+        <v>4929.652513344654</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>6235.769062991724</v>
+        <v>4126.472709763338</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>4299.007813420954</v>
+        <v>4380.645369223213</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>5906.097441490105</v>
+        <v>6050.812254826332</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>5660.034904163427</v>
+        <v>6459.169308658757</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>4462.357095420256</v>
+        <v>5564.94291249792</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>4638.375452831247</v>
+        <v>5713.953228745432</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>6448.886286045373</v>
+        <v>5364.954844496092</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>5097.042452962607</v>
+        <v>6051.128681136024</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>4049.781104293296</v>
+        <v>6116.381126589922</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>4615.858911885218</v>
+        <v>6060.192990263095</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>5768.939045382522</v>
+        <v>6111.76384830281</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>4606.334810599003</v>
+        <v>5701.294199087022</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>5778.28060384721</v>
+        <v>5251.087981101638</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>4741.032293211098</v>
+        <v>4207.066231464755</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>4881.760087107577</v>
+        <v>4211.896434065539</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>4474.856553427523</v>
+        <v>4931.900002985041</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>4336.654984904822</v>
+        <v>4949.025013363237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>6112.816412370731</v>
+        <v>6538.158928553212</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>4599.899532949233</v>
+        <v>5474.180107705534</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>5111.976408279304</v>
+        <v>4449.369982840327</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>3948.427028002756</v>
+        <v>5009.208697240986</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>6235.563965166349</v>
+        <v>4315.637793934</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>4403.041572965793</v>
+        <v>4675.647089148879</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>5913.993455394269</v>
+        <v>4145.45210781575</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>5587.43561004765</v>
+        <v>5388.391227988201</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>4289.89613114781</v>
+        <v>5384.841791768696</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>3729.21186561792</v>
+        <v>5136.728502905569</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>5564.933411350743</v>
+        <v>4548.455845504962</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>4464.955810697614</v>
+        <v>5304.120485252446</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>4810.730002302358</v>
+        <v>4936.267869213417</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>5008.897497799673</v>
+        <v>4308.113336593754</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>6433.829268815687</v>
+        <v>4636.944079910766</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>5722.70493041405</v>
+        <v>5738.939916311547</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>5319.86483277177</v>
+        <v>6410.486941833916</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>6292.08390880242</v>
+        <v>5001.716244000891</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>4154.469045466791</v>
+        <v>5964.328775241715</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>4927.360026440955</v>
+        <v>5295.877020710088</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>6398.16279910801</v>
+        <v>4310.72141698344</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>4339.79136991454</v>
+        <v>4768.560028544396</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>6255.140124943042</v>
+        <v>5893.11596543614</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>5580.949950643903</v>
+        <v>4201.996091692506</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>4555.532980734628</v>
+        <v>4064.86944909455</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>5190.363132294756</v>
+        <v>5050.567871726226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>5947.312055252658</v>
+        <v>5197.538537843075</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>4598.840511491478</v>
+        <v>4534.217575886702</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>5744.168240646525</v>
+        <v>5430.612353403924</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>3907.809044832667</v>
+        <v>5609.595028136449</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>5869.980638437545</v>
+        <v>6111.495689167838</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>6491.584606891762</v>
+        <v>6122.492201093365</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>4930.381357952258</v>
+        <v>4449.236168753872</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>4743.236239753423</v>
+        <v>4930.079426154473</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>5494.877763455788</v>
+        <v>6105.074293209416</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>5308.753861976253</v>
+        <v>4874.555884741672</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>4380.31547844135</v>
+        <v>6185.39783308729</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>3764.880178570599</v>
+        <v>5703.095084190689</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>6415.872435061244</v>
+        <v>5320.252421748301</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>3976.269858195254</v>
+        <v>3854.272270925263</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>6283.376928669332</v>
+        <v>6254.295110917417</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>5771.482474096224</v>
+        <v>4134.788716362313</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>5499.491319757712</v>
+        <v>4024.57953943725</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>4505.093692434669</v>
+        <v>5063.676861488308</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>5195.765506752515</v>
+        <v>5756.272358142832</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>5632.504503872271</v>
+        <v>4682.763648604157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>4382.28972394817</v>
+        <v>4573.406038401961</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>5560.408241122482</v>
+        <v>6062.228417654548</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>5609.828952446002</v>
+        <v>6356.413623869338</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>5460.031418180563</v>
+        <v>3795.031639058728</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>6174.077858216378</v>
+        <v>5924.019700487212</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>4712.518111224926</v>
+        <v>5806.862535403801</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>4542.95603009135</v>
+        <v>4693.10653023218</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>4908.012906279755</v>
+        <v>5095.748791065545</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>6350.408222129122</v>
+        <v>4470.655042411658</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>4916.369631359655</v>
+        <v>5664.783602448512</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>6603.754157340925</v>
+        <v>4260.882607234075</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>5274.752341024627</v>
+        <v>5169.019708033856</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>4371.242395340131</v>
+        <v>5295.808264878501</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>5660.308105390325</v>
+        <v>3986.958406497276</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>4376.415895033606</v>
+        <v>6433.951253880201</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>4992.015518923075</v>
+        <v>5677.735457461405</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>5645.81053108819</v>
+        <v>5434.428081166273</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>5927.698365871588</v>
+        <v>5257.048585736374</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>6210.496939920706</v>
+        <v>4245.365605817326</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>4606.33864638145</v>
+        <v>5247.595864182056</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>6098.769298907077</v>
+        <v>4731.926516990202</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>5396.501882227883</v>
+        <v>5475.440339567334</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>3903.444058684855</v>
+        <v>4267.465230304379</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>4641.976141879949</v>
+        <v>4231.397730655444</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>5410.010075352977</v>
+        <v>5731.629187070788</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>5208.85393363294</v>
+        <v>5268.156462030157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>5644.625347585657</v>
+        <v>5495.055949991561</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>5440.667824182474</v>
+        <v>5588.018879429716</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>5568.425473067385</v>
+        <v>4716.704006784349</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>5267.171238320381</v>
+        <v>4653.605026853494</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>5826.064363549473</v>
+        <v>5411.009604316519</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>4234.599998971432</v>
+        <v>5720.029968075574</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>5304.708800412791</v>
+        <v>4747.201371907739</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>5932.489741071967</v>
+        <v>3736.6137404003</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>4939.697143803219</v>
+        <v>5720.244817051872</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>4111.165624618919</v>
+        <v>5611.127944532699</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>3899.985826662616</v>
+        <v>4136.118339780949</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>4302.219586391207</v>
+        <v>4455.280972525535</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>5257.180274729513</v>
+        <v>4158.698988408799</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>4974.491104221817</v>
+        <v>4675.429014424006</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>5525.066206707646</v>
+        <v>5154.057470929319</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>6288.722509159107</v>
+        <v>4556.453048647848</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>4459.950388603049</v>
+        <v>5526.549376394019</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>5434.270840335899</v>
+        <v>5839.68083352948</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>4361.770571317976</v>
+        <v>5819.931234147803</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>3867.243888095064</v>
+        <v>6052.157481292193</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>5125.781571326385</v>
+        <v>4604.48278377116</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>6384.638717883417</v>
+        <v>5234.941405679783</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>4140.582849888273</v>
+        <v>4680.460179232125</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>5843.82261762375</v>
+        <v>5964.302901435357</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>4400.003507066869</v>
+        <v>6074.602169788292</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>4100.80638768784</v>
+        <v>4840.906315132121</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>3892.637500258864</v>
+        <v>6285.897316393766</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>4072.92069208775</v>
+        <v>4453.634275268445</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>5980.866261274465</v>
+        <v>5175.334369568793</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>5474.574658289701</v>
+        <v>4112.648781679774</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>3845.423412061137</v>
+        <v>6357.859536988308</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>4916.535472891717</v>
+        <v>4696.490662697433</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>5717.887521833142</v>
+        <v>5039.464031562295</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>6132.188832938561</v>
+        <v>4482.756988281421</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>4510.894320565563</v>
+        <v>4111.618918380036</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>5174.207742367023</v>
+        <v>4205.656697426035</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>5272.466117077013</v>
+        <v>4369.468212050384</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>6375.336051090018</v>
+        <v>4814.361178993825</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>6677.791421867179</v>
+        <v>5275.999993787197</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>4648.149087144051</v>
+        <v>5793.913653211842</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>5466.59268570716</v>
+        <v>4750.716114188049</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>4784.688804732838</v>
+        <v>5770.70299674435</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>5839.768988004405</v>
+        <v>4871.308182649863</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>6027.25950936607</v>
+        <v>5463.74211108595</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>5433.289103550968</v>
+        <v>5181.17223266771</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>5871.170973585968</v>
+        <v>5676.239262529586</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>5446.118465681239</v>
+        <v>4964.781707937007</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>4452.47707526785</v>
+        <v>5406.084785962714</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>4747.636787772682</v>
+        <v>5426.550385655994</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>4615.120250701932</v>
+        <v>4346.270997166833</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>6128.668213084529</v>
+        <v>6082.049884483502</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>4539.628670648136</v>
+        <v>5980.146653661977</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>5777.77757043936</v>
+        <v>4099.260243413011</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>5436.122919079479</v>
+        <v>6589.515146310752</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>4995.751798052027</v>
+        <v>4523.498315740891</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>4430.673379535076</v>
+        <v>5748.485279944774</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>5712.757576245199</v>
+        <v>4568.602402625925</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>5025.221412702684</v>
+        <v>4228.948125622214</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>4909.378398244574</v>
+        <v>6422.205870771055</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>5203.178552576755</v>
+        <v>4239.828137908186</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>6157.629776068373</v>
+        <v>6134.520473556564</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>4323.410053519488</v>
+        <v>3846.034527300293</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>5928.521575979456</v>
+        <v>4759.828999498872</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>5150.7364004964</v>
+        <v>5756.08049614123</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>5839.724201988526</v>
+        <v>5232.229890021074</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>4801.650899397521</v>
+        <v>5413.548451869909</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>5351.705208594589</v>
+        <v>6024.671333115471</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>4171.166331389149</v>
+        <v>4875.233935641747</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>5919.978239129408</v>
+        <v>5950.715377376314</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>5347.278831959763</v>
+        <v>6165.534241225419</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>4388.293674533751</v>
+        <v>5855.897833678277</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>5142.026595350707</v>
+        <v>5845.344202855576</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>4207.074244949266</v>
+        <v>4405.095438751909</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>6225.369071071841</v>
+        <v>4483.499180591585</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>5515.355290522037</v>
+        <v>5305.888333581952</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>5030.744887779634</v>
+        <v>5030.753323203783</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>5128.485625772219</v>
+        <v>4451.847676613475</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>5648.688043793248</v>
+        <v>5821.494617668994</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>4962.281356753407</v>
+        <v>4797.134975247839</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>4165.653741054264</v>
+        <v>6284.856325702128</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>4150.730427341588</v>
+        <v>4463.407037764404</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>5216.945902456729</v>
+        <v>6349.111093353195</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>5611.374424301957</v>
+        <v>4067.922064840409</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>5880.71353792542</v>
+        <v>4069.537371617487</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>6127.413619918959</v>
+        <v>6642.606285890285</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>4975.095999870646</v>
+        <v>5140.470532921492</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>5875.082329104785</v>
+        <v>4030.619298181165</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>5059.067652604787</v>
+        <v>4920.664730881444</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>4499.455082226518</v>
+        <v>5997.145140101372</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>4072.984163103589</v>
+        <v>4805.924887633482</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>6013.719159812101</v>
+        <v>4762.446588049125</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>4642.305067021859</v>
+        <v>4384.242900524157</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>5715.731741922647</v>
+        <v>4358.791640890244</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>4925.670476992649</v>
+        <v>5436.125847480853</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>5070.402343182138</v>
+        <v>5192.584144197043</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>4127.208506467806</v>
+        <v>5741.585779674671</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>4389.361918718188</v>
+        <v>5096.596901938921</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>4211.408992058684</v>
+        <v>4371.016400544262</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>5643.068967634705</v>
+        <v>4970.362458078402</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>6204.211359996275</v>
+        <v>3812.642172542403</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>5076.458486543876</v>
+        <v>5876.757983162625</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>6338.844387635631</v>
+        <v>5008.755473419589</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>4718.39628702911</v>
+        <v>4519.323714064208</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>4875.585478172951</v>
+        <v>4197.507460309855</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>5165.269958040862</v>
+        <v>5087.742053145519</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>5093.131548663783</v>
+        <v>4771.620760712509</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>6154.095993745946</v>
+        <v>4445.409106609778</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>6007.594337127918</v>
+        <v>6085.19244575859</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>4051.170589031699</v>
+        <v>6278.191746182326</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>5266.940721412817</v>
+        <v>5220.633769386503</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>3719.410027415469</v>
+        <v>5254.34559366307</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>5894.559915765018</v>
+        <v>4387.188602128965</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>4726.396395910097</v>
+        <v>4367.069680802168</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>4973.789606118497</v>
+        <v>4486.798837749192</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>5853.405049244184</v>
+        <v>4384.299346077017</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>4532.802105287335</v>
+        <v>5983.498796888284</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>5186.167187217619</v>
+        <v>4675.887652955251</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>4835.79265508905</v>
+        <v>4797.714547411229</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>4871.068841311123</v>
+        <v>6509.132567864848</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>6110.842515080968</v>
+        <v>5752.893215141901</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>5365.132248093629</v>
+        <v>5999.29697146345</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>4864.709684066206</v>
+        <v>4672.826648418322</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>3844.565293753105</v>
+        <v>4321.328930835424</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>5462.630456799713</v>
+        <v>4215.839933719057</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>5175.357891348332</v>
+        <v>4129.410888560219</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>5330.821993190283</v>
+        <v>5937.099708938399</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>6111.498141069357</v>
+        <v>4818.434628404571</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>5288.807646873536</v>
+        <v>6190.136991127695</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>5507.504298760367</v>
+        <v>4457.328201058445</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>4145.182895066577</v>
+        <v>4642.909753906413</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>4762.379662975725</v>
+        <v>5496.052515684674</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>4177.354836034688</v>
+        <v>5520.721515683115</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>5250.210148706774</v>
+        <v>5656.256451057668</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>6030.353487078369</v>
+        <v>3662.617013302157</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>3996.821077995612</v>
+        <v>4312.056126653094</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>6156.726275476688</v>
+        <v>5356.080483771222</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>6106.364767093289</v>
+        <v>4939.074746547792</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>6133.970020880222</v>
+        <v>6268.953066349672</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>4320.316413956277</v>
+        <v>5488.701022051568</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>4059.152095439321</v>
+        <v>4193.304492786723</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>4902.281353269377</v>
+        <v>4124.097233601557</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>4557.303361890204</v>
+        <v>6244.782238753078</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>3927.20867793806</v>
+        <v>6319.437122600669</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>5191.890071493141</v>
+        <v>6267.667598495656</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>5460.008405315005</v>
+        <v>5553.941274531664</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>4564.094725242781</v>
+        <v>5405.516300495985</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>5935.565947675328</v>
+        <v>6325.37762010965</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>5883.408764819189</v>
+        <v>5974.702084740594</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>4675.245243792943</v>
+        <v>4528.812169639456</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>5051.846642024208</v>
+        <v>5015.216971594086</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>4176.873235838496</v>
+        <v>5101.928326967524</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>6657.058462392028</v>
+        <v>5463.235047768258</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>5525.727360403929</v>
+        <v>4212.344336565774</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>4916.503159678182</v>
+        <v>4928.85641962896</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>4514.011356530869</v>
+        <v>6467.017830056378</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>3881.079689255103</v>
+        <v>5348.002414309504</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>5518.724675618671</v>
+        <v>4859.648212647575</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>5733.535013391041</v>
+        <v>6253.665251443287</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>4923.679951884104</v>
+        <v>4182.200056509003</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>4711.657903521323</v>
+        <v>6023.248150098629</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>4538.694377709138</v>
+        <v>4834.529804980181</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>4204.064128062141</v>
+        <v>4455.91190426173</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>4793.858399393991</v>
+        <v>5901.478158472757</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>6154.910279493864</v>
+        <v>5112.278220132579</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>4523.34704023546</v>
+        <v>4585.514525383929</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>4549.743964531806</v>
+        <v>4551.698931894069</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>4341.910815737677</v>
+        <v>4471.324920511819</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>6276.66016090372</v>
+        <v>4275.945141441794</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>4290.859427408884</v>
+        <v>4878.463751079482</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>5170.537088611653</v>
+        <v>4030.420520273501</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>6072.248020782421</v>
+        <v>5417.372723487341</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>4285.823786117447</v>
+        <v>5051.842603859536</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>6234.587719897237</v>
+        <v>5999.482621803038</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>6053.574568640498</v>
+        <v>5067.213322848551</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>4912.497383348122</v>
+        <v>5278.841499778218</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>3771.230714177915</v>
+        <v>4904.174746309751</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>6052.553996645284</v>
+        <v>6066.612865453694</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>6385.720273968988</v>
+        <v>6462.190618506147</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>4537.822995153288</v>
+        <v>6148.080799192026</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>4908.553925616667</v>
+        <v>5115.587630757175</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>4493.591002659858</v>
+        <v>3902.087300746898</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>4846.918515362107</v>
+        <v>4015.779776364326</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>6103.023258160366</v>
+        <v>5131.113983171359</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>5462.350352025666</v>
+        <v>6398.316632091827</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>6078.110203251646</v>
+        <v>5087.726082564277</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>6164.343284585693</v>
+        <v>4233.545900755234</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>5384.833167091008</v>
+        <v>5176.148133095525</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>5533.950680142598</v>
+        <v>5624.14802591335</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>5084.205746753128</v>
+        <v>4729.342610802155</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>3966.857998510415</v>
+        <v>3753.875973277505</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>5763.990647209059</v>
+        <v>3952.773301796268</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>4541.558721635227</v>
+        <v>6313.405651343443</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>4497.880581086507</v>
+        <v>6363.508691543093</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>5096.419442112383</v>
+        <v>4143.348416716462</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>5195.682345277633</v>
+        <v>4500.320881844084</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>6091.598791733632</v>
+        <v>5458.028252636678</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>5440.163481635948</v>
+        <v>4245.864662514779</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>4304.96979875889</v>
+        <v>6120.298390026859</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>4359.948333223263</v>
+        <v>5015.408242245673</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>5791.162712970789</v>
+        <v>4472.199456856514</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>5285.873336864789</v>
+        <v>4120.65590846189</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>4963.338097760441</v>
+        <v>5500.390968763402</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>5562.349814807219</v>
+        <v>5095.806673709364</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>5591.719468026762</v>
+        <v>5479.25962945819</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>5995.808741183664</v>
+        <v>5414.312396370616</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>4667.487281811409</v>
+        <v>5931.792337472139</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>5461.652200480434</v>
+        <v>4899.142464313208</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>4577.000490450751</v>
+        <v>5155.604267729684</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>4342.361630918407</v>
+        <v>4875.950573882731</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>4249.995744724491</v>
+        <v>4919.561879845552</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>5918.644406505863</v>
+        <v>4002.932481853075</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>6129.443083090725</v>
+        <v>4036.337319169481</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>5595.020037496075</v>
+        <v>5550.885744337237</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>6730.898872770719</v>
+        <v>6172.572920173343</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>5834.862971997428</v>
+        <v>5344.743893843841</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>4951.211545154397</v>
+        <v>4122.156361642295</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>5550.625079715853</v>
+        <v>4987.532875309801</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>4751.444980698133</v>
+        <v>4885.045298549652</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>5312.289720724796</v>
+        <v>3695.373146416722</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>5900.906078743406</v>
+        <v>5997.208594741534</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>5083.420063344734</v>
+        <v>5343.017090197135</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>4054.913768183324</v>
+        <v>5697.868218973087</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>4361.428884084021</v>
+        <v>6077.732092328799</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>4149.306834790074</v>
+        <v>3717.341751676943</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>4090.805865112924</v>
+        <v>5238.758197552133</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>5554.852849956407</v>
+        <v>5276.769669772854</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>5505.291541275588</v>
+        <v>5174.381750337973</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>4147.001832340858</v>
+        <v>4956.866061958528</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>6425.173123248571</v>
+        <v>6059.271227577778</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>5182.480584360293</v>
+        <v>6175.186323753972</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>4321.975182498975</v>
+        <v>5144.799282505403</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>5551.697421754448</v>
+        <v>5904.778721963487</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>4395.302695345721</v>
+        <v>6277.63449128442</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>5111.662246329464</v>
+        <v>6114.040456512971</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>3966.791410281023</v>
+        <v>5631.666619222941</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>5010.157334506516</v>
+        <v>5226.939130427096</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>6558.128621611709</v>
+        <v>5564.891257573498</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>6148.126600925125</v>
+        <v>4411.435032431972</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>4222.735906638713</v>
+        <v>6668.32099269101</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>5447.285717213425</v>
+        <v>4627.962907640306</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>4010.561887814953</v>
+        <v>4189.98763323682</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>4624.062982689199</v>
+        <v>5751.349305873583</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>6024.62509716669</v>
+        <v>5188.38934465155</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>4447.509697963238</v>
+        <v>6003.609327885783</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>4063.856690703558</v>
+        <v>4284.422638384565</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>4538.445903990753</v>
+        <v>3881.192314562484</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>5970.849283183426</v>
+        <v>4140.563994993461</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>5999.515193322211</v>
+        <v>3943.742513880135</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>6670.183837535995</v>
+        <v>4468.747133867447</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>5701.211892622652</v>
+        <v>4364.986310018661</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>3974.66513356062</v>
+        <v>5496.928364801599</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>4406.878480730411</v>
+        <v>5327.925429258545</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>4164.315428966152</v>
+        <v>4488.817126078585</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>5434.184370982806</v>
+        <v>5154.338989578227</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>4744.665812808315</v>
+        <v>4913.205233722369</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>6300.482668610392</v>
+        <v>4531.178507248533</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>5835.269586576064</v>
+        <v>4647.320394327216</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>5186.423540854677</v>
+        <v>3822.376923631336</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>5060.406188991105</v>
+        <v>4834.210328835888</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>4606.177646980014</v>
+        <v>4121.68903874076</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>6052.608255020778</v>
+        <v>5545.220857886896</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>4953.542811621538</v>
+        <v>4200.094214282282</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>4183.590779430194</v>
+        <v>5910.146318991189</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>5902.668978089839</v>
+        <v>5776.790550926995</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>4779.060838348192</v>
+        <v>6155.867961678539</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>5180.118021191045</v>
+        <v>5577.551305446164</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>5003.042822187701</v>
+        <v>5880.146371212695</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>5556.717242378731</v>
+        <v>5462.821306641863</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>4441.15480569816</v>
+        <v>6023.935013197377</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>5338.698996336424</v>
+        <v>5037.232089180511</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>4219.944339612685</v>
+        <v>6416.310523363733</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>4093.613131570913</v>
+        <v>4754.622923107067</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>5749.585380008754</v>
+        <v>6654.389370256426</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>4606.700893153586</v>
+        <v>5852.616812822086</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>6038.568341241748</v>
+        <v>5407.271723870437</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>4070.07191714692</v>
+        <v>6156.683249867733</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>4378.950442310301</v>
+        <v>4895.339350916809</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>5122.617859110854</v>
+        <v>4309.530077664107</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>5406.669720083339</v>
+        <v>5172.115264737366</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>6127.643626044552</v>
+        <v>5093.994949816355</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>4400.347802520952</v>
+        <v>4482.989068592485</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>4925.044995573571</v>
+        <v>4085.859407583775</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>5292.459479039463</v>
+        <v>5243.3390281406</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>5005.945269189746</v>
+        <v>4991.101519353063</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>4520.227339886172</v>
+        <v>5983.902583551023</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>6245.724201256976</v>
+        <v>5169.642837701669</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>6439.830618464276</v>
+        <v>5204.189828854336</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>5062.465138489401</v>
+        <v>4633.215503194898</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>5828.191946708042</v>
+        <v>5540.706882516865</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>6000.756438441759</v>
+        <v>5679.681566769157</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>4682.765902290343</v>
+        <v>4906.480371536597</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>5935.507626820728</v>
+        <v>5037.541097853513</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>5504.578636007469</v>
+        <v>5121.17196361796</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>5693.533411229957</v>
+        <v>5415.418403547911</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>5986.672135209386</v>
+        <v>4922.948287950286</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>5452.646263871493</v>
+        <v>4191.734143566197</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>4736.923228987145</v>
+        <v>5014.998467540444</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>6226.310917840676</v>
+        <v>4702.085747496138</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>4063.289614690236</v>
+        <v>5046.56376299276</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>6044.573958620512</v>
+        <v>6013.673983894061</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>3989.921445720614</v>
+        <v>5730.225237740809</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>4589.384485658139</v>
+        <v>5749.532420876151</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>6683.673142494053</v>
+        <v>4808.770236653306</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>3982.621988772089</v>
+        <v>4803.712858858506</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>5504.137472443078</v>
+        <v>5183.070190039829</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>3807.848735924235</v>
+        <v>4302.441106280909</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>5447.003824216048</v>
+        <v>4692.008535330964</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>4240.734615050506</v>
+        <v>4430.687688275595</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>4339.306919297308</v>
+        <v>6191.032367617937</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>6141.75105827053</v>
+        <v>5791.14246389356</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>4269.59165110296</v>
+        <v>6303.908275108242</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>6073.399421738936</v>
+        <v>4816.449452119845</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>4906.873018962589</v>
+        <v>4566.206060973152</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>6006.897629021618</v>
+        <v>5306.981646359869</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>5651.437811184089</v>
+        <v>4388.450052571498</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>3947.59196324261</v>
+        <v>5834.382040870974</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>5122.220379616428</v>
+        <v>5475.179133538096</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>4193.951728256018</v>
+        <v>5972.68803076095</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>5088.79433473384</v>
+        <v>4323.986868937195</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>5034.503868319203</v>
+        <v>4351.219491181415</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>6069.870242336457</v>
+        <v>5226.844860142799</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>5624.046031960106</v>
+        <v>4448.602135388292</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>5888.182774233069</v>
+        <v>5937.97814852391</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>4656.913165079864</v>
+        <v>5973.999462285939</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>4328.928773945433</v>
+        <v>5749.947067732663</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>5042.772530306243</v>
+        <v>4584.111790101813</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>4713.229339656295</v>
+        <v>6238.961170818366</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>4871.949212319251</v>
+        <v>4102.410628333575</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>4782.5211540617</v>
+        <v>4683.844170158973</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>6401.895922926549</v>
+        <v>5794.53633682246</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>4859.442142443259</v>
+        <v>5578.786592632884</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>5088.507658500624</v>
+        <v>5377.743761550498</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>6072.947572995086</v>
+        <v>6650.842903714968</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>4468.310221129695</v>
+        <v>5782.056684216958</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>5728.930409262197</v>
+        <v>6136.955465857537</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>4914.002180715051</v>
+        <v>4558.58240846536</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>5300.170974011173</v>
+        <v>6124.894510254049</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>5321.970131571515</v>
+        <v>4715.402156697171</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>4823.15333738673</v>
+        <v>4576.325003228805</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>4060.938507799259</v>
+        <v>4739.598594677116</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>6013.700062867211</v>
+        <v>5657.386080119344</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>6150.169226801221</v>
+        <v>5721.023877106346</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>5240.788874595606</v>
+        <v>5504.868944539828</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>4068.409090906129</v>
+        <v>4843.358151790929</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>3785.353659368883</v>
+        <v>5172.766509871729</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>4543.545302554193</v>
+        <v>5091.585870906898</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>5675.274845709732</v>
+        <v>4901.981962733788</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>5988.483851586994</v>
+        <v>5906.720503382409</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>6490.84416400884</v>
+        <v>5970.03354017731</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>5048.780540473534</v>
+        <v>4632.517870984801</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>4915.249196276694</v>
+        <v>4989.674257266393</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>5945.749823975011</v>
+        <v>4252.12772274762</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>4105.032856532113</v>
+        <v>5011.628048549236</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>5703.09748996837</v>
+        <v>5153.996288698624</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>5234.115053919536</v>
+        <v>5505.589934951476</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>5331.007957577131</v>
+        <v>5229.542553245881</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>5370.318969274437</v>
+        <v>6010.288533146026</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>6078.433985830034</v>
+        <v>5438.518714817463</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>5197.759640094995</v>
+        <v>5004.774405958119</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>4244.154047004689</v>
+        <v>6002.237238698693</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>5462.584953775133</v>
+        <v>5348.580532249135</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>4347.711713238133</v>
+        <v>5735.75651243376</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>6224.991784841908</v>
+        <v>4044.678208447768</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>5501.577391963558</v>
+        <v>6243.99243557418</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>5108.635462461677</v>
+        <v>4968.456867454138</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>5174.927013049354</v>
+        <v>4652.707965504182</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>4777.67533073906</v>
+        <v>5456.302843735596</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>4036.356009820337</v>
+        <v>5194.752338300362</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>4668.772562264394</v>
+        <v>6420.429191585375</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>5848.542577928159</v>
+        <v>4135.600126626641</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>6063.110838684105</v>
+        <v>4767.744903622586</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>4536.754814225597</v>
+        <v>4543.665050031427</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>5734.947996864262</v>
+        <v>4516.288299614474</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>5931.463698890475</v>
+        <v>6036.895756862838</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>4734.04595979136</v>
+        <v>3898.432457753646</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>4641.206056743218</v>
+        <v>5330.854071883525</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>5873.161617028863</v>
+        <v>4090.233160670445</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>4403.724740400542</v>
+        <v>4517.198793940108</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>5049.668476195062</v>
+        <v>5550.213915743957</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>4360.591031437189</v>
+        <v>4598.53593415885</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>5320.448385194941</v>
+        <v>4783.022414409933</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>4248.869744912381</v>
+        <v>4927.755818298697</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>4571.230455387478</v>
+        <v>4880.56574141821</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>5345.105313948407</v>
+        <v>5246.092362165254</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>4238.176528894507</v>
+        <v>3913.315444960811</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>4247.015584857595</v>
+        <v>4339.651647087954</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>5292.941471860132</v>
+        <v>5067.483655053935</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>5914.928778173261</v>
+        <v>5718.076436255235</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>4906.02832504053</v>
+        <v>4056.784507429652</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>5118.736235730639</v>
+        <v>5649.855856387092</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>3682.968538454808</v>
+        <v>3961.200846209434</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>6095.135203835401</v>
+        <v>5978.765880168039</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>4295.657011999601</v>
+        <v>6156.742400276363</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>6391.029293382132</v>
+        <v>4830.063167900211</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>5427.562199586799</v>
+        <v>5973.570927630987</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>4437.675366300121</v>
+        <v>4394.417776941415</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>4904.823644060823</v>
+        <v>4900.802462224895</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>4476.196486784767</v>
+        <v>4687.522371342649</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>4352.755185264673</v>
+        <v>5770.226603272514</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>4612.906658859913</v>
+        <v>5975.961417379996</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>4068.075040747398</v>
+        <v>5317.665116919969</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>5641.114390938505</v>
+        <v>5142.691330348143</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>6025.141883547985</v>
+        <v>5751.290147581837</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>4304.387172001363</v>
+        <v>5565.079606370534</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>5525.536326904648</v>
+        <v>6247.332203370132</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>5623.105928237193</v>
+        <v>4461.567112902125</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>4227.173842087578</v>
+        <v>5626.275486140601</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>6243.937813661543</v>
+        <v>4581.439044378661</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>3998.337584000281</v>
+        <v>4815.128689957987</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>5842.803978841646</v>
+        <v>4187.512223239549</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>6060.917500712088</v>
+        <v>5555.624207059474</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>4556.816957993204</v>
+        <v>4666.882870244042</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>5948.169941176663</v>
+        <v>4048.696966406763</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>5654.65667987182</v>
+        <v>5087.995266057602</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>5426.36323825333</v>
+        <v>5567.219480121781</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>5423.105959940021</v>
+        <v>4343.060789425296</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>4010.628034375023</v>
+        <v>4246.753460965268</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>6106.378782681146</v>
+        <v>4719.288811137039</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>3879.060102606337</v>
+        <v>5015.660662512497</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>4673.138196203829</v>
+        <v>6601.494931756003</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>3907.59318844728</v>
+        <v>5816.655912026294</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>5294.551988484844</v>
+        <v>4875.214236221922</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>4360.979049970181</v>
+        <v>5779.93125753908</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>4129.751612123812</v>
+        <v>4692.010565749631</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>4856.854440450183</v>
+        <v>5540.74786259243</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>5925.614755103685</v>
+        <v>4677.581255949156</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>6643.585361066837</v>
+        <v>5340.009652760749</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>5110.013158612592</v>
+        <v>4821.025705328498</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>5657.497302711377</v>
+        <v>4426.337531444015</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>5882.807871234786</v>
+        <v>5634.174899828473</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>5554.513363938204</v>
+        <v>5516.764180347926</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>4187.563105630675</v>
+        <v>5132.668369548968</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>4193.692902417352</v>
+        <v>6420.210263895638</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>5537.06052473662</v>
+        <v>5234.997229907251</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>5316.3454704498</v>
+        <v>5090.648519068763</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>6306.181781728883</v>
+        <v>6099.672349662162</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>5664.510363843147</v>
+        <v>6504.754515116088</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>5851.025708521567</v>
+        <v>4284.93727495374</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>4415.782108236299</v>
+        <v>3857.716332759409</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>6082.974026506776</v>
+        <v>5489.157899038657</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>4035.927984372904</v>
+        <v>6555.375480370549</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>4070.945120164137</v>
+        <v>4281.045165116298</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>3702.825734293529</v>
+        <v>4404.809770056773</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>5959.918753540999</v>
+        <v>4424.94200267324</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>6293.327412014043</v>
+        <v>4543.267893248564</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>4356.950019822602</v>
+        <v>5591.509034071753</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>4475.046170221983</v>
+        <v>5991.813737140445</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>5796.961461846323</v>
+        <v>4414.264053805591</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>6067.517880635742</v>
+        <v>5801.298371367443</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>4461.781059217807</v>
+        <v>3918.388750029057</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>4777.876309583216</v>
+        <v>5586.824132612245</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>4885.581824752049</v>
+        <v>4912.879816788026</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>5398.455231045454</v>
+        <v>5006.030198200744</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>4867.114323998467</v>
+        <v>5847.590450759993</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>6478.224469752447</v>
+        <v>4415.243494121141</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>5624.81182332787</v>
+        <v>4968.757779151483</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>4126.068361902287</v>
+        <v>4364.859113806793</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>5137.793855865734</v>
+        <v>5693.816807503295</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>5634.650359241038</v>
+        <v>6123.399196516409</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>5709.702604665051</v>
+        <v>6149.526921723713</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>4062.305695295393</v>
+        <v>5652.583626648526</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>5000.021314890464</v>
+        <v>4409.315944525654</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>6141.304369671203</v>
+        <v>6225.96822389943</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>4365.897878508771</v>
+        <v>5037.970160093437</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>4783.275646451512</v>
+        <v>6176.352981049091</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>4409.069815442916</v>
+        <v>3760.791312074031</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>5257.029148814951</v>
+        <v>4782.736829747664</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>4658.820099888204</v>
+        <v>6260.776345666293</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>5488.893929520283</v>
+        <v>4214.540197084893</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>6538.171471858802</v>
+        <v>4760.645132871014</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>6430.428293754657</v>
+        <v>6159.520793494719</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>5314.246842143011</v>
+        <v>5301.952195228163</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>4865.130541018982</v>
+        <v>6504.498426923811</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>4703.604080811122</v>
+        <v>4110.688695498856</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>4886.727380983298</v>
+        <v>4256.80309510668</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>5044.088015652163</v>
+        <v>4985.89426599845</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>6451.374799204349</v>
+        <v>4661.273001677433</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>5032.438417768643</v>
+        <v>5483.92660491125</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>5258.960184923747</v>
+        <v>6404.255551490709</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>4864.852605095536</v>
+        <v>5811.984418517249</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>5375.38293227696</v>
+        <v>6054.971909663364</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>5846.343803768554</v>
+        <v>6202.21615474602</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>5971.897929339252</v>
+        <v>3937.899200490255</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>5227.300793252685</v>
+        <v>4478.942060028132</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>5632.233884053739</v>
+        <v>5091.049743128681</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>5363.667370595031</v>
+        <v>4752.206000465614</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>4993.51881823118</v>
+        <v>4597.352692037217</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>4490.503936055416</v>
+        <v>5728.99816024902</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>5254.300191548252</v>
+        <v>4941.212358918176</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>5984.856821708434</v>
+        <v>3815.839926957648</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>3844.062674265805</v>
+        <v>5065.218157578928</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>6028.509434854308</v>
+        <v>4015.616757095241</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>4761.778378397972</v>
+        <v>5544.537701017121</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>4781.096276281192</v>
+        <v>5470.083333274886</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>4134.465132044372</v>
+        <v>4338.188868407352</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>4103.145291222597</v>
+        <v>5392.085115263916</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>4669.387069291258</v>
+        <v>5494.028964123765</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>4461.556497701344</v>
+        <v>6310.606455438503</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>5786.140620539794</v>
+        <v>4775.002897564349</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>6288.631121778225</v>
+        <v>6318.488435854481</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>6255.164004621145</v>
+        <v>6254.127821935601</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>6210.43398096828</v>
+        <v>6326.876741243698</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>4821.846998402464</v>
+        <v>5818.691678178549</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>5258.909599043166</v>
+        <v>5558.826077285074</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>4066.212264247722</v>
+        <v>6434.015217570038</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>5377.201986046388</v>
+        <v>5025.657300325469</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>4907.363144164861</v>
+        <v>6043.869234285906</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>6160.63596913644</v>
+        <v>4547.15591717792</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>4361.353435266457</v>
+        <v>5196.33920080132</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>5115.498827077472</v>
+        <v>4879.683047356297</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>3949.577084046527</v>
+        <v>5617.232455077356</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>4881.491887903773</v>
+        <v>5152.306761617362</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>6364.682385065814</v>
+        <v>4303.577091233607</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>4048.419850121805</v>
+        <v>5971.010980528732</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>6257.306448921348</v>
+        <v>5288.411915003011</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>6286.242290056009</v>
+        <v>5184.280757545244</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>4003.36080406809</v>
+        <v>4204.178252875914</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>5910.430891113634</v>
+        <v>4190.572813416007</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>5589.764200919799</v>
+        <v>5032.141403081565</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>6269.796233851805</v>
+        <v>4144.038263774519</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>6353.653811978516</v>
+        <v>5273.91591218326</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>6020.287503280857</v>
+        <v>3881.366284310419</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>4169.079370707661</v>
+        <v>4525.170857484894</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>5961.451256435561</v>
+        <v>5643.37691384381</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>4801.206098840338</v>
+        <v>5075.25476058685</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>3724.037331195785</v>
+        <v>3958.109862829255</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>4090.967739305493</v>
+        <v>4030.814458484448</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>5931.697660324284</v>
+        <v>4843.300304561507</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>5674.761977704951</v>
+        <v>6140.569832335949</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>6019.712099730095</v>
+        <v>4580.79459627609</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>6125.067073520797</v>
+        <v>5811.358393493813</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>4498.624572588882</v>
+        <v>5202.603928814274</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>4601.997093421436</v>
+        <v>4312.001853848422</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>4731.588193583193</v>
+        <v>5405.821463512273</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>5362.492293539563</v>
+        <v>6045.456707211707</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>4819.290763376061</v>
+        <v>4157.974741174383</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>5508.556901179258</v>
+        <v>4334.688177740566</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>5419.971713637799</v>
+        <v>4259.175653694442</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>3873.143567143124</v>
+        <v>5416.287389379853</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>5143.354574617786</v>
+        <v>4411.627358180449</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>5974.051626507221</v>
+        <v>6753.507599543351</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>5133.599548527331</v>
+        <v>5314.142987579725</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>4319.953948419933</v>
+        <v>5070.063473103813</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>5372.697497049296</v>
+        <v>5069.499547856828</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>6242.288157036454</v>
+        <v>4837.74556032458</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>6319.816001161822</v>
+        <v>5269.270296024472</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>6216.215565341086</v>
+        <v>4529.651902973716</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>5087.934202233077</v>
+        <v>5494.504210663406</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>6286.192202242124</v>
+        <v>3948.635776209449</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>6338.831748527282</v>
+        <v>4501.067028131085</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>4626.518032164227</v>
+        <v>5603.869755922608</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>4109.746059656797</v>
+        <v>4420.935661328534</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>5324.691195717989</v>
+        <v>4455.455130000532</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>5768.71797283907</v>
+        <v>6109.343722847176</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>5963.767412598664</v>
+        <v>5891.193962754095</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>5323.79300901923</v>
+        <v>6185.610510290573</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>6156.069863295771</v>
+        <v>5984.288694034121</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>4528.298216881799</v>
+        <v>4508.47092921376</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>6022.786680684824</v>
+        <v>4486.213991191622</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>5600.187149403886</v>
+        <v>5132.155377865634</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>5780.45860269591</v>
+        <v>5588.061882000699</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>5820.091174160689</v>
+        <v>4861.83691245919</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>5987.805379084378</v>
+        <v>4954.970900084056</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>6669.056968745428</v>
+        <v>4548.384317507012</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>5105.937992951044</v>
+        <v>4239.111826508072</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>4242.055764072652</v>
+        <v>4847.353247313433</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>5100.120105766666</v>
+        <v>4407.385867269858</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>3956.406152054335</v>
+        <v>6552.756152648772</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>6081.58446016982</v>
+        <v>6215.000942324113</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>4567.848114784132</v>
+        <v>3699.713737917109</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>4586.535604436554</v>
+        <v>6124.7089783487</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>5055.690286130389</v>
+        <v>6059.315324714356</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>4932.208187776292</v>
+        <v>4096.274007728182</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>5949.654188319891</v>
+        <v>6226.686706487137</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>5993.016544363706</v>
+        <v>3921.743609553977</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>4460.349535875168</v>
+        <v>5293.732393737827</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>4301.227374423784</v>
+        <v>4284.374502644925</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>6187.85320568485</v>
+        <v>4029.609342943394</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>4739.9199788839</v>
+        <v>6377.14419813536</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>4706.488489145577</v>
+        <v>5058.64821801952</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>4682.648927164231</v>
+        <v>6009.004961828772</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>6056.584503164611</v>
+        <v>4896.015036211254</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>5215.195554450641</v>
+        <v>3597.305694267639</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>5352.400656672457</v>
+        <v>3937.11838307717</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>4670.922014066947</v>
+        <v>6534.039691468466</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>5696.656456680399</v>
+        <v>4341.51147322641</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>6003.42249510801</v>
+        <v>3950.360606743525</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>5285.807810735866</v>
+        <v>3933.717979644974</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>5122.408153305067</v>
+        <v>5943.521435927385</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>3963.017100726967</v>
+        <v>5038.305463677004</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>4904.843661107298</v>
+        <v>5989.082121429657</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>5851.644007502378</v>
+        <v>4068.536274394822</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>5398.704176925003</v>
+        <v>5341.698281514849</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>3758.134533380355</v>
+        <v>5795.958565861438</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>6331.324288627435</v>
+        <v>4514.661391781287</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>5374.639147556178</v>
+        <v>4559.634697517917</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>3999.702030599006</v>
+        <v>5676.923668470091</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>4898.599081684953</v>
+        <v>6056.600701216779</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>5266.144086555195</v>
+        <v>6315.31088226207</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>5190.569630442787</v>
+        <v>4424.115811449451</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>4260.058990116202</v>
+        <v>6013.046821824209</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>5749.57996825571</v>
+        <v>5989.8632843653</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>5946.142573013402</v>
+        <v>4387.914921664667</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>4279.592277231113</v>
+        <v>6333.001320693701</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>4300.171092685323</v>
+        <v>5514.820744768473</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>3712.510526794939</v>
+        <v>5852.569163667693</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>4333.312987596002</v>
+        <v>5320.765724195127</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>6370.847809832219</v>
+        <v>4867.43170608838</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>3904.423184470781</v>
+        <v>5246.350914739045</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>6225.570181678216</v>
+        <v>4171.147086862873</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>4720.620829415375</v>
+        <v>5131.895959668009</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>5722.93474008699</v>
+        <v>4819.103487594175</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>4363.167003011511</v>
+        <v>6258.42834741807</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>6364.699960464764</v>
+        <v>4757.472772404343</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>4909.547439889863</v>
+        <v>5241.766135634134</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>5914.721948732705</v>
+        <v>5689.524484047859</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>4467.889372814624</v>
+        <v>5926.841133089187</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>6593.815086808797</v>
+        <v>4992.681326716144</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>4269.635064875191</v>
+        <v>5153.244473415832</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>4489.831984874697</v>
+        <v>5683.400287250562</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>6223.61491837479</v>
+        <v>3992.003904417073</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>4323.189211342089</v>
+        <v>5316.187867912532</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>5303.352115781422</v>
+        <v>5066.107886750921</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>5947.631238423824</v>
+        <v>5796.16983644777</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>4988.053753095986</v>
+        <v>5864.650962389378</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>3922.636768963409</v>
+        <v>5547.739339053834</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>5422.983742501007</v>
+        <v>6010.250311217511</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>4308.599308628939</v>
+        <v>6382.766717054428</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>5485.391569897612</v>
+        <v>5813.201045762941</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>5458.824985481232</v>
+        <v>4377.688889156369</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>6162.971662034581</v>
+        <v>5792.864107451385</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>4676.690454175658</v>
+        <v>3820.250843983055</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>5811.169055316182</v>
+        <v>4396.983071261927</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>4780.141927582884</v>
+        <v>5096.339929314752</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>6356.666817758854</v>
+        <v>6075.84349088827</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>3938.20314095336</v>
+        <v>5500.350711313238</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>4395.621197165093</v>
+        <v>5707.634230771202</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>4027.539397953686</v>
+        <v>5955.371316424745</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>3629.106302860424</v>
+        <v>4092.415023153333</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>4945.760802481202</v>
+        <v>6112.952500849793</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>3998.306803081712</v>
+        <v>4175.810502363111</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>6310.370759110404</v>
+        <v>4407.426629800495</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>3978.700910106067</v>
+        <v>4494.831558463872</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>4198.693784036696</v>
+        <v>4187.451421438754</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>5997.010249035398</v>
+        <v>4801.09132424379</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>5726.030453381391</v>
+        <v>5002.566118310975</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>4747.042957992551</v>
+        <v>5524.403133475314</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>3782.492910462745</v>
+        <v>4358.959315878389</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>6019.09722603215</v>
+        <v>6113.033724670971</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>4494.358131458738</v>
+        <v>4677.390520344946</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>4628.537380568581</v>
+        <v>6044.023344158196</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>4964.230567228295</v>
+        <v>6129.520909843791</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>5310.746824911103</v>
+        <v>6196.46365213428</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>6087.1179994497</v>
+        <v>5113.783886975168</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>4818.890280961241</v>
+        <v>5934.830921061664</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>4983.352987082422</v>
+        <v>4806.739575434774</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>4698.639576167227</v>
+        <v>4680.748024990936</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>4717.108701961728</v>
+        <v>5294.803801092896</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>4613.712228718868</v>
+        <v>3982.492092269853</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>4576.179824312944</v>
+        <v>5891.154669009275</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>4352.291704054689</v>
+        <v>3987.973957733754</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>5906.88120688262</v>
+        <v>4560.102786620441</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>5583.022968894032</v>
+        <v>5763.289499453796</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>5210.966909613523</v>
+        <v>6078.556674954062</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>5590.171592122599</v>
+        <v>5999.716384520013</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>4846.098863658333</v>
+        <v>4990.65822551237</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>6388.077131146537</v>
+        <v>5580.340854928002</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>5104.002986689263</v>
+        <v>4422.436333366621</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>4614.225753223096</v>
+        <v>5327.89592180696</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>5847.016579930166</v>
+        <v>6157.694917253116</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>5729.62524959453</v>
+        <v>5810.761409779229</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>4238.829518264832</v>
+        <v>4677.628910254</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>5589.835940847342</v>
+        <v>4425.836429392886</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>4167.833787365608</v>
+        <v>5242.738836858077</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>4515.159445107244</v>
+        <v>5710.567997237669</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>4542.617530385495</v>
+        <v>4857.622764573326</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>4611.992339073341</v>
+        <v>5512.608455486873</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>5210.996547819927</v>
+        <v>5799.004818745514</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>6036.460015459639</v>
+        <v>4673.80214636581</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>4216.456524188583</v>
+        <v>4598.609551571052</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>5777.161776960645</v>
+        <v>5169.037509429288</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>4410.458559114104</v>
+        <v>5482.789539863122</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>6066.574345488771</v>
+        <v>5759.049281940665</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>4359.574344639838</v>
+        <v>4301.654611535671</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>5600.915711496995</v>
+        <v>4103.798105719583</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>6281.660701562699</v>
+        <v>5082.464016637375</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>5179.412391706505</v>
+        <v>4830.187103928202</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>5268.782817827887</v>
+        <v>5033.275504736856</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>4274.555740479597</v>
+        <v>4043.271288504671</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>4353.736795573266</v>
+        <v>6445.862037481167</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>5095.844562772635</v>
+        <v>5601.677108070531</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>4395.263029996902</v>
+        <v>3786.681784117864</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>5503.168800075888</v>
+        <v>6265.734926148472</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>4626.86323681125</v>
+        <v>5766.359543177664</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>5014.382698876855</v>
+        <v>5369.423531931615</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>4256.908489633533</v>
+        <v>6030.944031256838</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>5070.298141625461</v>
+        <v>4949.093112513878</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>5344.94476986999</v>
+        <v>3768.26876596423</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>5387.410968216946</v>
+        <v>4445.720636042564</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>5264.379056665776</v>
+        <v>4680.699228998586</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>6022.625617442559</v>
+        <v>5923.501387878918</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>4747.841803364276</v>
+        <v>6300.171922338613</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>5909.138221566564</v>
+        <v>4357.935462509225</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>5926.470845939875</v>
+        <v>4398.945277373705</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>5428.654992095415</v>
+        <v>5325.180382602238</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>5464.768326417479</v>
+        <v>6528.852813783344</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>4307.135694408946</v>
+        <v>4878.311451504158</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>5618.98277997538</v>
+        <v>4328.159191565194</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>4624.393690660466</v>
+        <v>6489.788982794896</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>4079.169063773103</v>
+        <v>4300.105839547334</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>5848.981071631583</v>
+        <v>4544.864141000936</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>5965.002433595197</v>
+        <v>5368.735649645017</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>4613.558612097457</v>
+        <v>5759.938825247888</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>5215.723501163613</v>
+        <v>4295.39165569808</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>5866.170953263962</v>
+        <v>4911.732088548032</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>4557.300191216428</v>
+        <v>5515.073157581037</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>5997.285558327354</v>
+        <v>6141.889331169677</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>4939.475182849394</v>
+        <v>4716.723517587213</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>5395.08544929152</v>
+        <v>4474.663989518637</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>3873.51031171835</v>
+        <v>4797.787691938936</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>5719.57591223043</v>
+        <v>5983.849610259054</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>6035.64587950869</v>
+        <v>3917.108843766174</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>6406.190544779565</v>
+        <v>5103.489216373616</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>5022.335584454517</v>
+        <v>4634.991232786174</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>6396.472510500091</v>
+        <v>4468.690427285951</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>4348.061398466373</v>
+        <v>4287.987173464398</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>5391.645837435813</v>
+        <v>4051.475659299768</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>4507.696911306743</v>
+        <v>3906.9689484332</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>4404.157392704356</v>
+        <v>4683.289649239891</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>4739.945555472191</v>
+        <v>5347.15478002307</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>6200.32320292548</v>
+        <v>5390.174756570059</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>5038.673960016077</v>
+        <v>5297.813810246113</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>5447.733750437863</v>
+        <v>4408.411785201685</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>4050.629959125725</v>
+        <v>5746.784244885988</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>5421.837785648037</v>
+        <v>4918.779765753685</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>4701.453246702029</v>
+        <v>5273.92771693642</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>4572.49287462559</v>
+        <v>6451.555008655358</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>5168.613648889511</v>
+        <v>4317.957501118738</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>4066.790255889212</v>
+        <v>4381.006351634546</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>4926.06065747389</v>
+        <v>4924.437632566543</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>5910.923393902708</v>
+        <v>5438.891789419359</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>4449.335889946603</v>
+        <v>3622.239751343321</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>5337.431470989205</v>
+        <v>6200.164718725701</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>5210.052063029135</v>
+        <v>4521.299880491642</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>5621.188217421055</v>
+        <v>4902.170144482716</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>4692.492625956661</v>
+        <v>5079.342082122467</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>4554.371789791944</v>
+        <v>4721.539725928082</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>4947.359502034779</v>
+        <v>4133.458315500411</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>5280.75821526917</v>
+        <v>6167.26293274914</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>5563.244881329926</v>
+        <v>6015.743831239097</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>4031.408156039265</v>
+        <v>3928.127681045955</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>4794.91107275666</v>
+        <v>4918.353184909413</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>5710.013324691074</v>
+        <v>5639.319317590871</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>3915.582456799464</v>
+        <v>4998.210091192235</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>4866.537144880412</v>
+        <v>6013.187818467688</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>5915.182225920656</v>
+        <v>5369.612318423045</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>5962.303448784419</v>
+        <v>5290.967027865286</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>4864.353443244879</v>
+        <v>5301.586475464182</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>5668.84231892299</v>
+        <v>5454.881079744978</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>4309.105977403216</v>
+        <v>6397.227238327331</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>5173.132502774326</v>
+        <v>5000.317367229693</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>5490.450701954362</v>
+        <v>4863.315206370756</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>5247.763245903575</v>
+        <v>5445.176876768343</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>6522.938766845999</v>
+        <v>4449.072131659006</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>5840.569536026224</v>
+        <v>5002.008448316748</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>4388.633362048405</v>
+        <v>6741.059521666746</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>6439.25376731393</v>
+        <v>5467.610546505385</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>5583.24496014018</v>
+        <v>3886.806507065847</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>4374.105098759233</v>
+        <v>5415.545922890975</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>5533.224987580504</v>
+        <v>5278.642222771274</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>6350.54364349948</v>
+        <v>4838.442440970677</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>5528.183458418399</v>
+        <v>3789.561749980788</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>6205.043608343217</v>
+        <v>3875.399128834471</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>5496.7473018546</v>
+        <v>4846.054628454451</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>4905.346317926009</v>
+        <v>3798.183199000521</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>4656.517162855647</v>
+        <v>5033.833490065887</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>5986.838619405808</v>
+        <v>4279.281975244495</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>4354.534736197184</v>
+        <v>4508.785434649561</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>6293.904385613668</v>
+        <v>5605.260099380319</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>5159.145831063185</v>
+        <v>6081.830985115918</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>3740.090420919947</v>
+        <v>5530.193982620966</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>6075.385570019328</v>
+        <v>5615.503474110988</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>5472.403804468896</v>
+        <v>5870.462813490351</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>6121.343860304938</v>
+        <v>6026.263234301958</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>4570.359774329006</v>
+        <v>5896.845082756508</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>5581.325391730627</v>
+        <v>4455.575592938494</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>4180.280838555914</v>
+        <v>5533.061184154118</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>5491.442951987028</v>
+        <v>4194.457181258989</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>5656.586335068045</v>
+        <v>5447.915338598285</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>5179.381670439128</v>
+        <v>5347.636947101075</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>5379.373214435141</v>
+        <v>4005.138368894074</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>4549.586046247839</v>
+        <v>5898.348226918223</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>3755.162544538659</v>
+        <v>4941.995138978422</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>4716.649344795998</v>
+        <v>4648.564946629354</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>5136.339078791826</v>
+        <v>6122.089398344352</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>4248.925995231427</v>
+        <v>3722.138499238487</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>6598.21815486091</v>
+        <v>6450.32263511301</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>4011.585205638153</v>
+        <v>6059.455181471834</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>5742.948933391766</v>
+        <v>6132.742816970468</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>5657.490424706012</v>
+        <v>4060.105253899825</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>6401.608599465712</v>
+        <v>4014.172333660633</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>6171.832676887494</v>
+        <v>5795.137125114827</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>4409.470343730536</v>
+        <v>5755.837482464767</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>5810.945937100822</v>
+        <v>5501.111075746495</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>3866.978000545553</v>
+        <v>6491.335076186076</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>4376.645493644812</v>
+        <v>5994.17580774151</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>3775.528863470312</v>
+        <v>4815.244624643654</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>4146.833731778072</v>
+        <v>3989.273817040418</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>4505.054731552741</v>
+        <v>4164.067167252079</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>6033.914538021619</v>
+        <v>5223.822911124284</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>4242.180071780319</v>
+        <v>5962.334497465016</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>4479.594685538638</v>
+        <v>5443.368344996342</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>4215.90463388013</v>
+        <v>4270.195412143766</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>4484.427222689917</v>
+        <v>6228.061679920137</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>5225.332472629843</v>
+        <v>4606.361691391089</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>3995.660692556943</v>
+        <v>5635.578553558428</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>6135.369595312203</v>
+        <v>5599.329820015751</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>5730.049785782952</v>
+        <v>5762.51005020191</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>4819.538869596659</v>
+        <v>5274.265053932107</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>5447.79587738761</v>
+        <v>4929.280849734798</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>4208.740975531366</v>
+        <v>5295.935522873213</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>4634.15311806216</v>
+        <v>5322.192562916978</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>5341.012073839712</v>
+        <v>6245.951017045319</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>4450.227032359492</v>
+        <v>5447.198638972061</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>4992.129364951528</v>
+        <v>6437.598457561899</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>4402.062288530445</v>
+        <v>6353.04057522787</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>4111.911554098077</v>
+        <v>4370.43666519427</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>4071.682518245417</v>
+        <v>4325.211884380105</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>6486.037989556971</v>
+        <v>4006.363272839638</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>5855.123565190448</v>
+        <v>4537.20128756278</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>5571.80818598667</v>
+        <v>4177.427644374006</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>4754.813077136392</v>
+        <v>4522.261957534374</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>4607.61022325592</v>
+        <v>5184.901481472229</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>5794.318319024474</v>
+        <v>5279.450255364455</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>4250.664509156128</v>
+        <v>5161.290331616363</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>6467.794494046603</v>
+        <v>4040.042021180835</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>5567.716139437502</v>
+        <v>4587.956963733336</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>5960.637889563827</v>
+        <v>4704.960511160251</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>5104.547656355978</v>
+        <v>4415.40466401877</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>5573.959029664604</v>
+        <v>5570.251821135034</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>4171.961484209868</v>
+        <v>4788.221471220741</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>5773.48186996103</v>
+        <v>5266.398047557348</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>6279.138883992075</v>
+        <v>5604.433471899682</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>5431.120472802388</v>
+        <v>6331.73363925592</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>4683.123253384649</v>
+        <v>5040.195765631844</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>4543.124983559742</v>
+        <v>4573.413728861364</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>5505.444229615298</v>
+        <v>4048.83265355308</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>6227.893719681555</v>
+        <v>5341.786941743721</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>5923.781853356015</v>
+        <v>4994.893023586994</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>6236.070999795799</v>
+        <v>5887.20567615922</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>6046.865697172374</v>
+        <v>4531.817679680347</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>4978.049569057699</v>
+        <v>5585.954287918028</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>6036.179224022266</v>
+        <v>5285.871117032604</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>5045.795724268933</v>
+        <v>5879.986416668924</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>6549.716982981243</v>
+        <v>6013.179358499615</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>6425.003184807921</v>
+        <v>5690.804784294481</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>6536.454568479723</v>
+        <v>4076.830741913193</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>4213.038387573213</v>
+        <v>5400.605350455338</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>5317.926503652349</v>
+        <v>6029.05009382398</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>5190.395031390457</v>
+        <v>3870.499373203544</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>5129.77086797318</v>
+        <v>6405.779889468932</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>5568.974662786119</v>
+        <v>6029.511952231695</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>6535.01273763163</v>
+        <v>5162.712782096079</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>4580.507996276731</v>
+        <v>4101.961039369017</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>4590.043826465922</v>
+        <v>3758.852641987065</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>5364.845845330432</v>
+        <v>5959.608002378831</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>5464.644655169705</v>
+        <v>4505.383147335479</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>4796.648613021853</v>
+        <v>5964.648239672004</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>5183.709252783308</v>
+        <v>5859.203206299142</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>5432.885420224154</v>
+        <v>4289.249851851096</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>5321.677519389579</v>
+        <v>5903.157890501928</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>5697.946442831708</v>
+        <v>4487.81399435396</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>4076.662936419413</v>
+        <v>5782.013831733896</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>4962.363763627038</v>
+        <v>5351.252980569212</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>4601.515721027464</v>
+        <v>5741.755414857284</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>5507.139439067895</v>
+        <v>4629.955283498572</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>5076.564804502366</v>
+        <v>4187.577200010192</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>5333.980142590847</v>
+        <v>4839.629573831086</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>6063.362765827276</v>
+        <v>4671.294238483764</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>4547.901722659783</v>
+        <v>3677.170475771127</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>4396.695083383061</v>
+        <v>5653.407771630248</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>4301.564151798202</v>
+        <v>6356.741083702383</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>6276.371992898785</v>
+        <v>4925.933673231786</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>4699.860542082979</v>
+        <v>5046.511990271245</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>5071.08011712698</v>
+        <v>5654.72925361561</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>4413.385208205667</v>
+        <v>4780.425857886081</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>4088.832816041766</v>
+        <v>5820.808009261069</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>5841.431134580047</v>
+        <v>5894.826810357784</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>4082.214112529329</v>
+        <v>5921.613348434955</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>4627.579299365658</v>
+        <v>5856.233751232277</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>5055.867914827397</v>
+        <v>6432.220606869868</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>6029.985328184547</v>
+        <v>6525.800194896186</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>3955.50913508792</v>
+        <v>4788.707765338551</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>5925.850797548383</v>
+        <v>4915.94680942688</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32188,7 +32188,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>4955.622263868061</v>
+        <v>5017.930322991778</v>
       </c>
     </row>
   </sheetData>

--- a/EconomicProject/Examples/Report_E4.xlsx
+++ b/EconomicProject/Examples/Report_E4.xlsx
@@ -450,31 +450,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>3597:3948</t>
+    <t>3580:3949</t>
   </si>
   <si>
-    <t>3948:4299</t>
+    <t>3949:4319</t>
   </si>
   <si>
-    <t>4299:4649</t>
+    <t>4319:4688</t>
   </si>
   <si>
-    <t>4649:5000</t>
+    <t>4688:5057</t>
   </si>
   <si>
-    <t>5000:5351</t>
+    <t>5057:5426</t>
   </si>
   <si>
-    <t>5351:5701</t>
+    <t>5426:5795</t>
   </si>
   <si>
-    <t>5701:6052</t>
+    <t>5795:6165</t>
   </si>
   <si>
-    <t>6052:6403</t>
+    <t>6165:6534</t>
   </si>
   <si>
-    <t>6403:6754</t>
+    <t>6534:6903</t>
   </si>
 </sst>
 </file>
@@ -3506,31 +3506,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3597:3948</c:v>
+                  <c:v>3580:3949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3948:4299</c:v>
+                  <c:v>3949:4319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4299:4649</c:v>
+                  <c:v>4319:4688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4649:5000</c:v>
+                  <c:v>4688:5057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000:5351</c:v>
+                  <c:v>5057:5426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5351:5701</c:v>
+                  <c:v>5426:5795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5701:6052</c:v>
+                  <c:v>5795:6165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6052:6403</c:v>
+                  <c:v>6165:6534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6403:6754</c:v>
+                  <c:v>6534:6903</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3542,31 +3542,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24142,13 +24142,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>6607.73380992514</v>
+        <v>4832.320668647098</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E2" s="5">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -24156,13 +24156,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>5323.488713413974</v>
+        <v>5946.894713242452</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E3" s="5">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -24170,13 +24170,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>4945.120216196222</v>
+        <v>4650.675557692344</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E4" s="5">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -24184,13 +24184,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>5624.085382122106</v>
+        <v>4050.279307146596</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -24198,13 +24198,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>6115.38313070396</v>
+        <v>5898.128630619917</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="5">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -24212,13 +24212,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>4898.827946550307</v>
+        <v>5172.828599677858</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="5">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24226,13 +24226,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>4802.921017643466</v>
+        <v>5068.400206259711</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E8" s="5">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24240,13 +24240,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>4456.980954400206</v>
+        <v>4374.669718965297</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24254,13 +24254,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>5244.660244107245</v>
+        <v>5261.539125874087</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="5">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24268,7 +24268,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>4339.069121858277</v>
+        <v>4593.984089907064</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24276,7 +24276,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>4778.542344567212</v>
+        <v>4984.244951738924</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24284,7 +24284,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>6315.81451819013</v>
+        <v>4723.352711516313</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24292,7 +24292,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>4974.307692554573</v>
+        <v>6432.216152386591</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24300,7 +24300,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>5836.820935576021</v>
+        <v>3962.385444287685</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -24308,7 +24308,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>5636.855543136574</v>
+        <v>4615.297259649382</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24316,7 +24316,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>4929.652513344654</v>
+        <v>4652.492361097069</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24324,7 +24324,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>4126.472709763338</v>
+        <v>5001.767165631908</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24332,7 +24332,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>4380.645369223213</v>
+        <v>4983.460815141267</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24340,7 +24340,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>6050.812254826332</v>
+        <v>6143.439401637865</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24348,7 +24348,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>6459.169308658757</v>
+        <v>5156.835471868724</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24356,7 +24356,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>5564.94291249792</v>
+        <v>5192.427148578815</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24364,7 +24364,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>5713.953228745432</v>
+        <v>5581.984350640234</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24372,7 +24372,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>5364.954844496092</v>
+        <v>5826.380894545763</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24380,7 +24380,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>6051.128681136024</v>
+        <v>5881.010144613108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24388,7 +24388,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>6116.381126589922</v>
+        <v>4797.27840877901</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24396,7 +24396,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>6060.192990263095</v>
+        <v>5461.231091535688</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24404,7 +24404,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>6111.76384830281</v>
+        <v>6143.132017300173</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24412,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>5701.294199087022</v>
+        <v>4319.687337204735</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24420,7 +24420,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>5251.087981101638</v>
+        <v>4840.80112064292</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24428,7 +24428,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>4207.066231464755</v>
+        <v>5113.328209895137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24436,7 +24436,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>4211.896434065539</v>
+        <v>4042.926621437466</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24444,7 +24444,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>4931.900002985041</v>
+        <v>5037.679393080571</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24452,7 +24452,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>4949.025013363237</v>
+        <v>5463.361165851209</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24460,7 +24460,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>6538.158928553212</v>
+        <v>6436.336253200835</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24468,7 +24468,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>5474.180107705534</v>
+        <v>5634.972095048374</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24476,7 +24476,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>4449.369982840327</v>
+        <v>4393.570088004955</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24484,7 +24484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>5009.208697240986</v>
+        <v>4530.567696618041</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>4315.637793934</v>
+        <v>5930.170974599433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24500,7 +24500,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>4675.647089148879</v>
+        <v>5050.197229631918</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -24508,7 +24508,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>4145.45210781575</v>
+        <v>6385.292505168274</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -24516,7 +24516,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>5388.391227988201</v>
+        <v>4314.109926511629</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -24524,7 +24524,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>5384.841791768696</v>
+        <v>4231.537062396899</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -24532,7 +24532,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>5136.728502905569</v>
+        <v>4338.285076007626</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -24540,7 +24540,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>4548.455845504962</v>
+        <v>4396.587882621877</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -24548,7 +24548,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5">
-        <v>5304.120485252446</v>
+        <v>4768.133231659764</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -24556,7 +24556,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5">
-        <v>4936.267869213417</v>
+        <v>3827.727955506043</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -24564,7 +24564,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5">
-        <v>4308.113336593754</v>
+        <v>5558.678378806964</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -24572,7 +24572,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5">
-        <v>4636.944079910766</v>
+        <v>6317.729214148289</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -24580,7 +24580,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5">
-        <v>5738.939916311547</v>
+        <v>4811.246935135434</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -24588,7 +24588,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>6410.486941833916</v>
+        <v>4208.644009255454</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -24596,7 +24596,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5">
-        <v>5001.716244000891</v>
+        <v>5398.588800126661</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -24604,7 +24604,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5">
-        <v>5964.328775241715</v>
+        <v>5894.912431533032</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -24612,7 +24612,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5">
-        <v>5295.877020710088</v>
+        <v>4958.985166618983</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -24620,7 +24620,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5">
-        <v>4310.72141698344</v>
+        <v>4801.499637270345</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -24628,7 +24628,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5">
-        <v>4768.560028544396</v>
+        <v>4896.590650681808</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -24636,7 +24636,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5">
-        <v>5893.11596543614</v>
+        <v>5158.386667544456</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -24644,7 +24644,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5">
-        <v>4201.996091692506</v>
+        <v>4501.038722200364</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -24652,7 +24652,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5">
-        <v>4064.86944909455</v>
+        <v>6285.975754304946</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -24660,7 +24660,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5">
-        <v>5050.567871726226</v>
+        <v>4413.848879293188</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -24668,7 +24668,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5">
-        <v>5197.538537843075</v>
+        <v>4521.716344326342</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -24676,7 +24676,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5">
-        <v>4534.217575886702</v>
+        <v>4045.806403508425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -24684,7 +24684,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5">
-        <v>5430.612353403924</v>
+        <v>4123.670902830558</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -24692,7 +24692,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5">
-        <v>5609.595028136449</v>
+        <v>4134.387357853459</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -24700,7 +24700,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5">
-        <v>6111.495689167838</v>
+        <v>4916.69673269729</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -24708,7 +24708,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>6122.492201093365</v>
+        <v>5166.203438642578</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -24716,7 +24716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>4449.236168753872</v>
+        <v>4577.382766560247</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -24724,7 +24724,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5">
-        <v>4930.079426154473</v>
+        <v>5264.556001903818</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -24732,7 +24732,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5">
-        <v>6105.074293209416</v>
+        <v>4364.658523032904</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -24740,7 +24740,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5">
-        <v>4874.555884741672</v>
+        <v>4831.667186029636</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -24748,7 +24748,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5">
-        <v>6185.39783308729</v>
+        <v>3711.446517845895</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -24756,7 +24756,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5">
-        <v>5703.095084190689</v>
+        <v>5186.531359587864</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -24764,7 +24764,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5">
-        <v>5320.252421748301</v>
+        <v>5221.98147515412</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -24772,7 +24772,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5">
-        <v>3854.272270925263</v>
+        <v>5068.69129918569</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -24780,7 +24780,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="5">
-        <v>6254.295110917417</v>
+        <v>4405.198833723523</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -24788,7 +24788,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>4134.788716362313</v>
+        <v>4769.299676635555</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -24796,7 +24796,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="5">
-        <v>4024.57953943725</v>
+        <v>4332.06275232349</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -24804,7 +24804,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="5">
-        <v>5063.676861488308</v>
+        <v>4433.924655220603</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -24812,7 +24812,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5">
-        <v>5756.272358142832</v>
+        <v>4567.59624010028</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -24820,7 +24820,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="5">
-        <v>4682.763648604157</v>
+        <v>5092.164048996719</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -24828,7 +24828,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="5">
-        <v>4573.406038401961</v>
+        <v>5518.492723460267</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -24836,7 +24836,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>6062.228417654548</v>
+        <v>4992.396583251739</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -24844,7 +24844,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="5">
-        <v>6356.413623869338</v>
+        <v>6422.568492916432</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -24852,7 +24852,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="5">
-        <v>3795.031639058728</v>
+        <v>5521.500784000103</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -24860,7 +24860,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="5">
-        <v>5924.019700487212</v>
+        <v>6396.332115239941</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -24868,7 +24868,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="5">
-        <v>5806.862535403801</v>
+        <v>4450.189423040797</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -24876,7 +24876,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="5">
-        <v>4693.10653023218</v>
+        <v>6396.201554791104</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -24884,7 +24884,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>5095.748791065545</v>
+        <v>5365.45373073583</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -24892,7 +24892,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>4470.655042411658</v>
+        <v>5091.584821100075</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -24900,7 +24900,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>5664.783602448512</v>
+        <v>5717.458485371257</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -24908,7 +24908,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>4260.882607234075</v>
+        <v>4124.554653391125</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -24916,7 +24916,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>5169.019708033856</v>
+        <v>4356.419293234721</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -24924,7 +24924,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>5295.808264878501</v>
+        <v>5428.06329270003</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -24932,7 +24932,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>3986.958406497276</v>
+        <v>6187.95982377516</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -24940,7 +24940,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>6433.951253880201</v>
+        <v>3991.942766374551</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -24948,7 +24948,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>5677.735457461405</v>
+        <v>5126.657219637078</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -24956,7 +24956,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>5434.428081166273</v>
+        <v>4775.715811934134</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -24964,7 +24964,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>5257.048585736374</v>
+        <v>4670.539777814573</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -24972,7 +24972,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>4245.365605817326</v>
+        <v>6113.231099761146</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -24980,7 +24980,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>5247.595864182056</v>
+        <v>6210.230370570772</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -24988,7 +24988,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>4731.926516990202</v>
+        <v>4053.360678895794</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -24996,7 +24996,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>5475.440339567334</v>
+        <v>4798.95271769667</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -25004,7 +25004,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>4267.465230304379</v>
+        <v>6365.347883227258</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -25012,7 +25012,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>4231.397730655444</v>
+        <v>5213.147432984391</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -25020,7 +25020,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>5731.629187070788</v>
+        <v>6377.946252578411</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -25028,7 +25028,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>5268.156462030157</v>
+        <v>5602.147246552381</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -25036,7 +25036,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>5495.055949991561</v>
+        <v>5841.615862968776</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -25044,7 +25044,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>5588.018879429716</v>
+        <v>4100.948792886643</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -25052,7 +25052,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>4716.704006784349</v>
+        <v>5012.745944957536</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -25060,7 +25060,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>4653.605026853494</v>
+        <v>3858.781510314235</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -25068,7 +25068,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>5411.009604316519</v>
+        <v>5805.194129815859</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -25076,7 +25076,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>5720.029968075574</v>
+        <v>6073.700294199456</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -25084,7 +25084,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>4747.201371907739</v>
+        <v>4096.518220983623</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -25092,7 +25092,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>3736.6137404003</v>
+        <v>5568.552560298512</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -25100,7 +25100,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>5720.244817051872</v>
+        <v>5337.051300076349</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -25108,7 +25108,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>5611.127944532699</v>
+        <v>5860.005477463777</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -25116,7 +25116,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>4136.118339780949</v>
+        <v>4362.063562776773</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -25124,7 +25124,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>4455.280972525535</v>
+        <v>5479.722471544867</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -25132,7 +25132,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>4158.698988408799</v>
+        <v>4671.516180643482</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -25140,7 +25140,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>4675.429014424006</v>
+        <v>4866.716524980989</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -25148,7 +25148,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>5154.057470929319</v>
+        <v>5560.524356990257</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -25156,7 +25156,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>4556.453048647848</v>
+        <v>4285.38798230702</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -25164,7 +25164,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>5526.549376394019</v>
+        <v>4424.140369630701</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -25172,7 +25172,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>5839.68083352948</v>
+        <v>4736.119887438317</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -25180,7 +25180,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>5819.931234147803</v>
+        <v>4290.077376144205</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -25188,7 +25188,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>6052.157481292193</v>
+        <v>5057.95921438966</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -25196,7 +25196,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>4604.48278377116</v>
+        <v>5293.427342294573</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -25204,7 +25204,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>5234.941405679783</v>
+        <v>5442.863612185557</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -25212,7 +25212,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>4680.460179232125</v>
+        <v>5671.509685345023</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -25220,7 +25220,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>5964.302901435357</v>
+        <v>5750.694353710321</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -25228,7 +25228,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>6074.602169788292</v>
+        <v>3996.863559221245</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -25236,7 +25236,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>4840.906315132121</v>
+        <v>5531.295564725112</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -25244,7 +25244,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>6285.897316393766</v>
+        <v>4240.592119591114</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -25252,7 +25252,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>4453.634275268445</v>
+        <v>4263.020011459142</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -25260,7 +25260,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>5175.334369568793</v>
+        <v>5728.400287525601</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -25268,7 +25268,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>4112.648781679774</v>
+        <v>5716.884105601604</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -25276,7 +25276,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>6357.859536988308</v>
+        <v>6605.218018301974</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -25284,7 +25284,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>4696.490662697433</v>
+        <v>5897.363135915327</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -25292,7 +25292,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>5039.464031562295</v>
+        <v>5207.973390581804</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -25300,7 +25300,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>4482.756988281421</v>
+        <v>5166.297192646059</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -25308,7 +25308,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>4111.618918380036</v>
+        <v>4616.525543282608</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -25316,7 +25316,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>4205.656697426035</v>
+        <v>6079.069485020996</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -25324,7 +25324,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>4369.468212050384</v>
+        <v>4979.242822056011</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -25332,7 +25332,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>4814.361178993825</v>
+        <v>5135.59554552419</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -25340,7 +25340,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>5275.999993787197</v>
+        <v>4694.695557739219</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -25348,7 +25348,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>5793.913653211842</v>
+        <v>5126.924538697684</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -25356,7 +25356,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>4750.716114188049</v>
+        <v>5082.38828198525</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -25364,7 +25364,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>5770.70299674435</v>
+        <v>5282.832060081761</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -25372,7 +25372,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>4871.308182649863</v>
+        <v>4383.593101730403</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -25380,7 +25380,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>5463.74211108595</v>
+        <v>4426.612689990909</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -25388,7 +25388,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>5181.17223266771</v>
+        <v>5713.956844046998</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -25396,7 +25396,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>5676.239262529586</v>
+        <v>4472.596747134638</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -25404,7 +25404,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>4964.781707937007</v>
+        <v>4341.920430127784</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -25412,7 +25412,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>5406.084785962714</v>
+        <v>5991.05571554254</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -25420,7 +25420,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>5426.550385655994</v>
+        <v>4550.721600238267</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -25428,7 +25428,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>4346.270997166833</v>
+        <v>6129.136559456138</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -25436,7 +25436,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>6082.049884483502</v>
+        <v>6245.391834112494</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -25444,7 +25444,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>5980.146653661977</v>
+        <v>5388.813077390731</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -25452,7 +25452,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>4099.260243413011</v>
+        <v>6397.999476823642</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -25460,7 +25460,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>6589.515146310752</v>
+        <v>6307.098623404961</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -25468,7 +25468,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>4523.498315740891</v>
+        <v>4214.736560049424</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -25476,7 +25476,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>5748.485279944774</v>
+        <v>4677.200137906731</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -25484,7 +25484,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>4568.602402625925</v>
+        <v>4598.27016313876</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -25492,7 +25492,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>4228.948125622214</v>
+        <v>3888.300714253068</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -25500,7 +25500,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>6422.205870771055</v>
+        <v>5567.188623214644</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -25508,7 +25508,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>4239.828137908186</v>
+        <v>6136.014673409821</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -25516,7 +25516,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>6134.520473556564</v>
+        <v>6102.52419230134</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -25524,7 +25524,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="5">
-        <v>3846.034527300293</v>
+        <v>4626.423513087562</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -25532,7 +25532,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="5">
-        <v>4759.828999498872</v>
+        <v>5300.302119389176</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -25540,7 +25540,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="5">
-        <v>5756.08049614123</v>
+        <v>5390.395006319431</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -25548,7 +25548,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="5">
-        <v>5232.229890021074</v>
+        <v>5946.026784197913</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -25556,7 +25556,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>5413.548451869909</v>
+        <v>4814.36650107518</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -25564,7 +25564,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="5">
-        <v>6024.671333115471</v>
+        <v>4515.918493542118</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -25572,7 +25572,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="5">
-        <v>4875.233935641747</v>
+        <v>4392.326111794356</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -25580,7 +25580,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="5">
-        <v>5950.715377376314</v>
+        <v>6403.552424015829</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -25588,7 +25588,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="5">
-        <v>6165.534241225419</v>
+        <v>5242.711603082747</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -25596,7 +25596,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>5855.897833678277</v>
+        <v>5262.357924346063</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -25604,7 +25604,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>5845.344202855576</v>
+        <v>5805.721438922482</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -25612,7 +25612,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>4405.095438751909</v>
+        <v>5047.252636747924</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -25620,7 +25620,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="5">
-        <v>4483.499180591585</v>
+        <v>5452.974721125115</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -25628,7 +25628,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="5">
-        <v>5305.888333581952</v>
+        <v>5892.63219271685</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -25636,7 +25636,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="5">
-        <v>5030.753323203783</v>
+        <v>6299.542032896843</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -25644,7 +25644,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="5">
-        <v>4451.847676613475</v>
+        <v>5174.360835295933</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -25652,7 +25652,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>5821.494617668994</v>
+        <v>5705.765312390185</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -25660,7 +25660,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>4797.134975247839</v>
+        <v>6287.602807824768</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -25668,7 +25668,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>6284.856325702128</v>
+        <v>5166.771293951233</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -25676,7 +25676,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>4463.407037764404</v>
+        <v>6043.244320920046</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -25684,7 +25684,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>6349.111093353195</v>
+        <v>5280.688158719828</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -25692,7 +25692,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>4067.922064840409</v>
+        <v>5271.519876962219</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -25700,7 +25700,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="5">
-        <v>4069.537371617487</v>
+        <v>4527.635910285923</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -25708,7 +25708,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="5">
-        <v>6642.606285890285</v>
+        <v>5170.048940580086</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -25716,7 +25716,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="5">
-        <v>5140.470532921492</v>
+        <v>6349.876269595221</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -25724,7 +25724,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="5">
-        <v>4030.619298181165</v>
+        <v>5611.008914982174</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -25732,7 +25732,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="5">
-        <v>4920.664730881444</v>
+        <v>4029.281442272546</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -25740,7 +25740,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="5">
-        <v>5997.145140101372</v>
+        <v>3863.047081938737</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -25748,7 +25748,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="5">
-        <v>4805.924887633482</v>
+        <v>5684.522553938452</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -25756,7 +25756,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="5">
-        <v>4762.446588049125</v>
+        <v>5595.494803519793</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -25764,7 +25764,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="5">
-        <v>4384.242900524157</v>
+        <v>5113.200419879403</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -25772,7 +25772,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="5">
-        <v>4358.791640890244</v>
+        <v>5827.549933554203</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -25780,7 +25780,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="5">
-        <v>5436.125847480853</v>
+        <v>3731.837745487719</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -25788,7 +25788,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="5">
-        <v>5192.584144197043</v>
+        <v>4691.434833534458</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -25796,7 +25796,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="5">
-        <v>5741.585779674671</v>
+        <v>4947.997325952025</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -25804,7 +25804,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="5">
-        <v>5096.596901938921</v>
+        <v>5742.96879676893</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -25812,7 +25812,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="5">
-        <v>4371.016400544262</v>
+        <v>5921.565366876275</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -25820,7 +25820,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="5">
-        <v>4970.362458078402</v>
+        <v>6373.491537784635</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -25828,7 +25828,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="5">
-        <v>3812.642172542403</v>
+        <v>4615.441857145266</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -25836,7 +25836,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="5">
-        <v>5876.757983162625</v>
+        <v>5787.319689788226</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -25844,7 +25844,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="5">
-        <v>5008.755473419589</v>
+        <v>4206.108914662952</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -25852,7 +25852,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="5">
-        <v>4519.323714064208</v>
+        <v>5052.778214079364</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -25860,7 +25860,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="5">
-        <v>4197.507460309855</v>
+        <v>4922.907718359117</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -25868,7 +25868,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="5">
-        <v>5087.742053145519</v>
+        <v>5133.078500621354</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -25876,7 +25876,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="5">
-        <v>4771.620760712509</v>
+        <v>4287.787929071216</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -25884,7 +25884,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="5">
-        <v>4445.409106609778</v>
+        <v>6217.064589296484</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -25892,7 +25892,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="5">
-        <v>6085.19244575859</v>
+        <v>5033.503195014748</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -25900,7 +25900,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="5">
-        <v>6278.191746182326</v>
+        <v>5739.513837909565</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -25908,7 +25908,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="5">
-        <v>5220.633769386503</v>
+        <v>5824.282003602872</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -25916,7 +25916,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="5">
-        <v>5254.34559366307</v>
+        <v>4581.22029609874</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -25924,7 +25924,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="5">
-        <v>4387.188602128965</v>
+        <v>6161.839764348738</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -25932,7 +25932,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="5">
-        <v>4367.069680802168</v>
+        <v>5248.254915907453</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -25940,7 +25940,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="5">
-        <v>4486.798837749192</v>
+        <v>6420.277618880245</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -25948,7 +25948,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="5">
-        <v>4384.299346077017</v>
+        <v>4584.145919755821</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -25956,7 +25956,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="5">
-        <v>5983.498796888284</v>
+        <v>5352.194259913025</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -25964,7 +25964,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="5">
-        <v>4675.887652955251</v>
+        <v>4838.329817602888</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -25972,7 +25972,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="5">
-        <v>4797.714547411229</v>
+        <v>3995.254593926173</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -25980,7 +25980,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="5">
-        <v>6509.132567864848</v>
+        <v>5915.793148267271</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -25988,7 +25988,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5">
-        <v>5752.893215141901</v>
+        <v>3825.324943754252</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -25996,7 +25996,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="5">
-        <v>5999.29697146345</v>
+        <v>4417.912779334563</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -26004,7 +26004,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="5">
-        <v>4672.826648418322</v>
+        <v>5153.798380411142</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -26012,7 +26012,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="5">
-        <v>4321.328930835424</v>
+        <v>5563.357457565451</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -26020,7 +26020,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="5">
-        <v>4215.839933719057</v>
+        <v>6369.157866200031</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -26028,7 +26028,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="5">
-        <v>4129.410888560219</v>
+        <v>6450.857393255593</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -26036,7 +26036,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="5">
-        <v>5937.099708938399</v>
+        <v>5709.687470195134</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -26044,7 +26044,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="5">
-        <v>4818.434628404571</v>
+        <v>5032.018490181517</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -26052,7 +26052,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="5">
-        <v>6190.136991127695</v>
+        <v>5940.856535040085</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -26060,7 +26060,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="5">
-        <v>4457.328201058445</v>
+        <v>4482.011376241916</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -26068,7 +26068,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="5">
-        <v>4642.909753906413</v>
+        <v>5765.389495738204</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -26076,7 +26076,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="5">
-        <v>5496.052515684674</v>
+        <v>6118.916042001018</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -26084,7 +26084,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="5">
-        <v>5520.721515683115</v>
+        <v>6007.903276895685</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -26092,7 +26092,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="5">
-        <v>5656.256451057668</v>
+        <v>5172.675967275522</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -26100,7 +26100,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="5">
-        <v>3662.617013302157</v>
+        <v>5368.936073219795</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -26108,7 +26108,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="5">
-        <v>4312.056126653094</v>
+        <v>4304.834187618539</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -26116,7 +26116,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="5">
-        <v>5356.080483771222</v>
+        <v>5661.539301564972</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -26124,7 +26124,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="5">
-        <v>4939.074746547792</v>
+        <v>5989.015515824583</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -26132,7 +26132,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="5">
-        <v>6268.953066349672</v>
+        <v>4450.058674564737</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -26140,7 +26140,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="5">
-        <v>5488.701022051568</v>
+        <v>3790.435894234279</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -26148,7 +26148,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="5">
-        <v>4193.304492786723</v>
+        <v>4877.760744752402</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -26156,7 +26156,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="5">
-        <v>4124.097233601557</v>
+        <v>4626.658606170286</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -26164,7 +26164,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="5">
-        <v>6244.782238753078</v>
+        <v>4629.011777715822</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -26172,7 +26172,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="5">
-        <v>6319.437122600669</v>
+        <v>5570.045513452926</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -26180,7 +26180,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="5">
-        <v>6267.667598495656</v>
+        <v>3986.319394930015</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -26188,7 +26188,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="5">
-        <v>5553.941274531664</v>
+        <v>5431.546237595509</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -26196,7 +26196,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="5">
-        <v>5405.516300495985</v>
+        <v>4720.568743717698</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -26204,7 +26204,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="5">
-        <v>6325.37762010965</v>
+        <v>6351.959928523219</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -26212,7 +26212,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="5">
-        <v>5974.702084740594</v>
+        <v>6347.59698276909</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -26220,7 +26220,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="5">
-        <v>4528.812169639456</v>
+        <v>6438.133397248167</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -26228,7 +26228,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="5">
-        <v>5015.216971594086</v>
+        <v>5286.574168725364</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -26236,7 +26236,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="5">
-        <v>5101.928326967524</v>
+        <v>6006.959117825776</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -26244,7 +26244,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="5">
-        <v>5463.235047768258</v>
+        <v>5639.099116380381</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -26252,7 +26252,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="5">
-        <v>4212.344336565774</v>
+        <v>5176.097402717094</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -26260,7 +26260,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="5">
-        <v>4928.85641962896</v>
+        <v>5388.359480615539</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -26268,7 +26268,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="5">
-        <v>6467.017830056378</v>
+        <v>5327.546742402092</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -26276,7 +26276,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="5">
-        <v>5348.002414309504</v>
+        <v>4218.057432365172</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -26284,7 +26284,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="5">
-        <v>4859.648212647575</v>
+        <v>5754.603093428366</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -26292,7 +26292,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="5">
-        <v>6253.665251443287</v>
+        <v>4773.173591569741</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -26300,7 +26300,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="5">
-        <v>4182.200056509003</v>
+        <v>6556.459573994814</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -26308,7 +26308,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="5">
-        <v>6023.248150098629</v>
+        <v>4103.712130757201</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -26316,7 +26316,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="5">
-        <v>4834.529804980181</v>
+        <v>5913.498867039763</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -26324,7 +26324,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="5">
-        <v>4455.91190426173</v>
+        <v>5462.173799150779</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -26332,7 +26332,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="5">
-        <v>5901.478158472757</v>
+        <v>4115.852863107016</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -26340,7 +26340,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="5">
-        <v>5112.278220132579</v>
+        <v>4991.47830402747</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -26348,7 +26348,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="5">
-        <v>4585.514525383929</v>
+        <v>5623.094553501965</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -26356,7 +26356,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="5">
-        <v>4551.698931894069</v>
+        <v>5057.865878088016</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -26364,7 +26364,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="5">
-        <v>4471.324920511819</v>
+        <v>3880.295570542889</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -26372,7 +26372,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="5">
-        <v>4275.945141441794</v>
+        <v>4490.650121670499</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -26380,7 +26380,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="5">
-        <v>4878.463751079482</v>
+        <v>3872.713081291703</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -26388,7 +26388,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="5">
-        <v>4030.420520273501</v>
+        <v>4790.989177038356</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -26396,7 +26396,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="5">
-        <v>5417.372723487341</v>
+        <v>6128.901515784129</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -26404,7 +26404,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="5">
-        <v>5051.842603859536</v>
+        <v>6234.006218983898</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -26412,7 +26412,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="5">
-        <v>5999.482621803038</v>
+        <v>6238.619343615062</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -26420,7 +26420,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="5">
-        <v>5067.213322848551</v>
+        <v>5539.588224645868</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -26428,7 +26428,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="5">
-        <v>5278.841499778218</v>
+        <v>5400.001673440845</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -26436,7 +26436,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="5">
-        <v>4904.174746309751</v>
+        <v>5617.679083757193</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -26444,7 +26444,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="5">
-        <v>6066.612865453694</v>
+        <v>4415.98584494474</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -26452,7 +26452,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="5">
-        <v>6462.190618506147</v>
+        <v>5799.931758448792</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -26460,7 +26460,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="5">
-        <v>6148.080799192026</v>
+        <v>5575.80679409564</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -26468,7 +26468,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="5">
-        <v>5115.587630757175</v>
+        <v>5238.909599807312</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -26476,7 +26476,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="5">
-        <v>3902.087300746898</v>
+        <v>5166.258490152914</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -26484,7 +26484,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="5">
-        <v>4015.779776364326</v>
+        <v>6018.315029037512</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -26492,7 +26492,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="5">
-        <v>5131.113983171359</v>
+        <v>5628.126517593403</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -26500,7 +26500,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="5">
-        <v>6398.316632091827</v>
+        <v>5782.349981982461</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -26508,7 +26508,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="5">
-        <v>5087.726082564277</v>
+        <v>5959.965657189541</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -26516,7 +26516,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="5">
-        <v>4233.545900755234</v>
+        <v>5065.920934350436</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -26524,7 +26524,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="5">
-        <v>5176.148133095525</v>
+        <v>3880.226005469155</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -26532,7 +26532,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="5">
-        <v>5624.14802591335</v>
+        <v>5126.364419171608</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -26540,7 +26540,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="5">
-        <v>4729.342610802155</v>
+        <v>5259.088005810267</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -26548,7 +26548,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="5">
-        <v>3753.875973277505</v>
+        <v>5684.099857980996</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -26556,7 +26556,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="5">
-        <v>3952.773301796268</v>
+        <v>4632.202526390613</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -26564,7 +26564,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="5">
-        <v>6313.405651343443</v>
+        <v>4618.517702260528</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -26572,7 +26572,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="5">
-        <v>6363.508691543093</v>
+        <v>5433.280762079662</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -26580,7 +26580,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="5">
-        <v>4143.348416716462</v>
+        <v>3940.901352602487</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -26588,7 +26588,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="5">
-        <v>4500.320881844084</v>
+        <v>4006.7373128827</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -26596,7 +26596,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="5">
-        <v>5458.028252636678</v>
+        <v>6226.463920315185</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -26604,7 +26604,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="5">
-        <v>4245.864662514779</v>
+        <v>4207.767286575247</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -26612,7 +26612,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="5">
-        <v>6120.298390026859</v>
+        <v>3998.820228726547</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -26620,7 +26620,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="5">
-        <v>5015.408242245673</v>
+        <v>4598.577780598661</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -26628,7 +26628,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="5">
-        <v>4472.199456856514</v>
+        <v>5645.218629900921</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -26636,7 +26636,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="5">
-        <v>4120.65590846189</v>
+        <v>6145.90157345374</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -26644,7 +26644,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="5">
-        <v>5500.390968763402</v>
+        <v>5091.298703375411</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -26652,7 +26652,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="5">
-        <v>5095.806673709364</v>
+        <v>5173.417922162937</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -26660,7 +26660,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="5">
-        <v>5479.25962945819</v>
+        <v>5942.958892443451</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -26668,7 +26668,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="5">
-        <v>5414.312396370616</v>
+        <v>5587.297234842659</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -26676,7 +26676,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="5">
-        <v>5931.792337472139</v>
+        <v>4140.756112130473</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -26684,7 +26684,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="5">
-        <v>4899.142464313208</v>
+        <v>6012.720179322859</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -26692,7 +26692,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="5">
-        <v>5155.604267729684</v>
+        <v>4967.803766473495</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -26700,7 +26700,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="5">
-        <v>4875.950573882731</v>
+        <v>6179.383300477423</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -26708,7 +26708,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="5">
-        <v>4919.561879845552</v>
+        <v>5000.145626615347</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -26716,7 +26716,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="5">
-        <v>4002.932481853075</v>
+        <v>5123.550821611823</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -26724,7 +26724,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="5">
-        <v>4036.337319169481</v>
+        <v>5759.208427770002</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -26732,7 +26732,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="5">
-        <v>5550.885744337237</v>
+        <v>4974.90758476052</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -26740,7 +26740,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="5">
-        <v>6172.572920173343</v>
+        <v>4887.714303714701</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -26748,7 +26748,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="5">
-        <v>5344.743893843841</v>
+        <v>4317.114259193103</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -26756,7 +26756,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="5">
-        <v>4122.156361642295</v>
+        <v>5044.152834731231</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -26764,7 +26764,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="5">
-        <v>4987.532875309801</v>
+        <v>6432.453998946932</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -26772,7 +26772,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="5">
-        <v>4885.045298549652</v>
+        <v>5835.120247840413</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -26780,7 +26780,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="5">
-        <v>3695.373146416722</v>
+        <v>3956.592756873195</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -26788,7 +26788,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="5">
-        <v>5997.208594741534</v>
+        <v>4476.501922146816</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -26796,7 +26796,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="5">
-        <v>5343.017090197135</v>
+        <v>5053.386588390968</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -26804,7 +26804,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="5">
-        <v>5697.868218973087</v>
+        <v>5422.197339713218</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -26812,7 +26812,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="5">
-        <v>6077.732092328799</v>
+        <v>6731.674301902406</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -26820,7 +26820,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="5">
-        <v>3717.341751676943</v>
+        <v>5329.095720553512</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -26828,7 +26828,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="5">
-        <v>5238.758197552133</v>
+        <v>6124.664321244957</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -26836,7 +26836,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="5">
-        <v>5276.769669772854</v>
+        <v>4394.883864794127</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -26844,7 +26844,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="5">
-        <v>5174.381750337973</v>
+        <v>4970.25573270638</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -26852,7 +26852,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="5">
-        <v>4956.866061958528</v>
+        <v>5737.257814547478</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -26860,7 +26860,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="5">
-        <v>6059.271227577778</v>
+        <v>5751.262084364505</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -26868,7 +26868,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="5">
-        <v>6175.186323753972</v>
+        <v>5354.53410241719</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -26876,7 +26876,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="5">
-        <v>5144.799282505403</v>
+        <v>6225.78157765844</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -26884,7 +26884,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="5">
-        <v>5904.778721963487</v>
+        <v>5612.176647355519</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -26892,7 +26892,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="5">
-        <v>6277.63449128442</v>
+        <v>6420.170685259744</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -26900,7 +26900,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="5">
-        <v>6114.040456512971</v>
+        <v>5592.765203218119</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -26908,7 +26908,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="5">
-        <v>5631.666619222941</v>
+        <v>4990.244073942413</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -26916,7 +26916,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="5">
-        <v>5226.939130427096</v>
+        <v>5942.115036303995</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -26924,7 +26924,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="5">
-        <v>5564.891257573498</v>
+        <v>5436.170565339398</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -26932,7 +26932,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="5">
-        <v>4411.435032431972</v>
+        <v>5409.865731266475</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -26940,7 +26940,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="5">
-        <v>6668.32099269101</v>
+        <v>5866.90876268004</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -26948,7 +26948,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="5">
-        <v>4627.962907640306</v>
+        <v>5131.181907577364</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -26956,7 +26956,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="5">
-        <v>4189.98763323682</v>
+        <v>5657.031652378515</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -26964,7 +26964,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="5">
-        <v>5751.349305873583</v>
+        <v>6057.586908574166</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -26972,7 +26972,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="5">
-        <v>5188.38934465155</v>
+        <v>5127.809176237151</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -26980,7 +26980,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="5">
-        <v>6003.609327885783</v>
+        <v>4799.94717584195</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -26988,7 +26988,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="5">
-        <v>4284.422638384565</v>
+        <v>4872.410385600678</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -26996,7 +26996,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="5">
-        <v>3881.192314562484</v>
+        <v>4791.811387809374</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -27004,7 +27004,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="5">
-        <v>4140.563994993461</v>
+        <v>5821.83009684013</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -27012,7 +27012,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="5">
-        <v>3943.742513880135</v>
+        <v>5216.815706400732</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -27020,7 +27020,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="5">
-        <v>4468.747133867447</v>
+        <v>5881.886031301591</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -27028,7 +27028,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="5">
-        <v>4364.986310018661</v>
+        <v>5420.141614325893</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -27036,7 +27036,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="5">
-        <v>5496.928364801599</v>
+        <v>6369.747735046462</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -27044,7 +27044,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="5">
-        <v>5327.925429258545</v>
+        <v>5919.065357210488</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -27052,7 +27052,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="5">
-        <v>4488.817126078585</v>
+        <v>3852.926637861558</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -27060,7 +27060,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="5">
-        <v>5154.338989578227</v>
+        <v>5764.368541473261</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -27068,7 +27068,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="5">
-        <v>4913.205233722369</v>
+        <v>5455.415669408992</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -27076,7 +27076,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="5">
-        <v>4531.178507248533</v>
+        <v>6361.138670205459</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -27084,7 +27084,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="5">
-        <v>4647.320394327216</v>
+        <v>5365.626017791834</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -27092,7 +27092,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="5">
-        <v>3822.376923631336</v>
+        <v>5982.338626284379</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -27100,7 +27100,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="5">
-        <v>4834.210328835888</v>
+        <v>5912.574308899237</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -27108,7 +27108,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="5">
-        <v>4121.68903874076</v>
+        <v>6068.931821208714</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -27116,7 +27116,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="5">
-        <v>5545.220857886896</v>
+        <v>3926.295953138017</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -27124,7 +27124,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="5">
-        <v>4200.094214282282</v>
+        <v>5424.947675993028</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -27132,7 +27132,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="5">
-        <v>5910.146318991189</v>
+        <v>4993.840470732728</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -27140,7 +27140,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="5">
-        <v>5776.790550926995</v>
+        <v>6294.093377299473</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -27148,7 +27148,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="5">
-        <v>6155.867961678539</v>
+        <v>5010.436735530994</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -27156,7 +27156,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="5">
-        <v>5577.551305446164</v>
+        <v>6682.300215924659</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -27164,7 +27164,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="5">
-        <v>5880.146371212695</v>
+        <v>4105.798889093766</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -27172,7 +27172,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="5">
-        <v>5462.821306641863</v>
+        <v>6000.147957181041</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -27180,7 +27180,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="5">
-        <v>6023.935013197377</v>
+        <v>5064.853969983225</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -27188,7 +27188,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="5">
-        <v>5037.232089180511</v>
+        <v>4593.754893479045</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -27196,7 +27196,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="5">
-        <v>6416.310523363733</v>
+        <v>5237.288972011615</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -27204,7 +27204,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="5">
-        <v>4754.622923107067</v>
+        <v>4276.992136019814</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -27212,7 +27212,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="5">
-        <v>6654.389370256426</v>
+        <v>6173.862814842117</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -27220,7 +27220,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="5">
-        <v>5852.616812822086</v>
+        <v>4433.005849528113</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -27228,7 +27228,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="5">
-        <v>5407.271723870437</v>
+        <v>5296.084373142546</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -27236,7 +27236,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="5">
-        <v>6156.683249867733</v>
+        <v>5474.88845834883</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -27244,7 +27244,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="5">
-        <v>4895.339350916809</v>
+        <v>4918.814658756181</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -27252,7 +27252,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="5">
-        <v>4309.530077664107</v>
+        <v>3993.053512236902</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -27260,7 +27260,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="5">
-        <v>5172.115264737366</v>
+        <v>5861.594608092243</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -27268,7 +27268,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="5">
-        <v>5093.994949816355</v>
+        <v>3922.097276102857</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -27276,7 +27276,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="5">
-        <v>4482.989068592485</v>
+        <v>6219.907477485857</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -27284,7 +27284,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="5">
-        <v>4085.859407583775</v>
+        <v>6288.104117016442</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -27292,7 +27292,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="5">
-        <v>5243.3390281406</v>
+        <v>4680.373663198555</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -27300,7 +27300,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="5">
-        <v>4991.101519353063</v>
+        <v>4979.503819308235</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -27308,7 +27308,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="5">
-        <v>5983.902583551023</v>
+        <v>5110.5924306549</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -27316,7 +27316,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="5">
-        <v>5169.642837701669</v>
+        <v>5587.304417704667</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -27324,7 +27324,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="5">
-        <v>5204.189828854336</v>
+        <v>5478.200168402709</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -27332,7 +27332,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="5">
-        <v>4633.215503194898</v>
+        <v>6343.898608444868</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -27340,7 +27340,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="5">
-        <v>5540.706882516865</v>
+        <v>4940.87759595373</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -27348,7 +27348,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="5">
-        <v>5679.681566769157</v>
+        <v>4907.087218571969</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -27356,7 +27356,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="5">
-        <v>4906.480371536597</v>
+        <v>5935.245910326433</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -27364,7 +27364,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="5">
-        <v>5037.541097853513</v>
+        <v>5668.703583922979</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -27372,7 +27372,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="5">
-        <v>5121.17196361796</v>
+        <v>6258.832102482414</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -27380,7 +27380,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="5">
-        <v>5415.418403547911</v>
+        <v>5786.047753139815</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -27388,7 +27388,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="5">
-        <v>4922.948287950286</v>
+        <v>4264.671884765739</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="5">
-        <v>4191.734143566197</v>
+        <v>4798.699524520386</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -27404,7 +27404,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="5">
-        <v>5014.998467540444</v>
+        <v>4889.963334903874</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -27412,7 +27412,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="5">
-        <v>4702.085747496138</v>
+        <v>6067.935959244149</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -27420,7 +27420,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="5">
-        <v>5046.56376299276</v>
+        <v>4751.611189788322</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -27428,7 +27428,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="5">
-        <v>6013.673983894061</v>
+        <v>5223.156417936812</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -27436,7 +27436,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="5">
-        <v>5730.225237740809</v>
+        <v>3864.360602628136</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -27444,7 +27444,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="5">
-        <v>5749.532420876151</v>
+        <v>6106.646152544849</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -27452,7 +27452,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="5">
-        <v>4808.770236653306</v>
+        <v>4853.411483284057</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -27460,7 +27460,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="5">
-        <v>4803.712858858506</v>
+        <v>6479.223371098205</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -27468,7 +27468,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="5">
-        <v>5183.070190039829</v>
+        <v>4056.773741205056</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -27476,7 +27476,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="5">
-        <v>4302.441106280909</v>
+        <v>5801.43716635222</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -27484,7 +27484,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="5">
-        <v>4692.008535330964</v>
+        <v>5765.152691532142</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -27492,7 +27492,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="5">
-        <v>4430.687688275595</v>
+        <v>5443.061354299507</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -27500,7 +27500,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="5">
-        <v>6191.032367617937</v>
+        <v>5309.655429455573</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -27508,7 +27508,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="5">
-        <v>5791.14246389356</v>
+        <v>4372.860016421414</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -27516,7 +27516,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="5">
-        <v>6303.908275108242</v>
+        <v>5273.566358365515</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -27524,7 +27524,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="5">
-        <v>4816.449452119845</v>
+        <v>5351.513215298731</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -27532,7 +27532,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="5">
-        <v>4566.206060973152</v>
+        <v>5166.490198592758</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -27540,7 +27540,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="5">
-        <v>5306.981646359869</v>
+        <v>5227.714595124946</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -27548,7 +27548,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="5">
-        <v>4388.450052571498</v>
+        <v>5748.629420749632</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -27556,7 +27556,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="5">
-        <v>5834.382040870974</v>
+        <v>6266.577771987068</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -27564,7 +27564,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="5">
-        <v>5475.179133538096</v>
+        <v>6040.5527871265</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -27572,7 +27572,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="5">
-        <v>5972.68803076095</v>
+        <v>5772.380866998667</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -27580,7 +27580,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="5">
-        <v>4323.986868937195</v>
+        <v>5917.356832025574</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -27588,7 +27588,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="5">
-        <v>4351.219491181415</v>
+        <v>4869.899613264181</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -27596,7 +27596,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="5">
-        <v>5226.844860142799</v>
+        <v>4710.171717713106</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -27604,7 +27604,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="5">
-        <v>4448.602135388292</v>
+        <v>6332.347430173329</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -27612,7 +27612,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="5">
-        <v>5937.97814852391</v>
+        <v>4176.603277834292</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -27620,7 +27620,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="5">
-        <v>5973.999462285939</v>
+        <v>4361.733189346382</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -27628,7 +27628,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="5">
-        <v>5749.947067732663</v>
+        <v>4802.657053375225</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -27636,7 +27636,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="5">
-        <v>4584.111790101813</v>
+        <v>5714.165902204773</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -27644,7 +27644,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="5">
-        <v>6238.961170818366</v>
+        <v>6116.312885197779</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -27652,7 +27652,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="5">
-        <v>4102.410628333575</v>
+        <v>5277.885760552543</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -27660,7 +27660,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="5">
-        <v>4683.844170158973</v>
+        <v>4251.879549243077</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -27668,7 +27668,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="5">
-        <v>5794.53633682246</v>
+        <v>3722.546491537674</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -27676,7 +27676,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="5">
-        <v>5578.786592632884</v>
+        <v>6089.260731787839</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -27684,7 +27684,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="5">
-        <v>5377.743761550498</v>
+        <v>5335.083182891124</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -27692,7 +27692,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="5">
-        <v>6650.842903714968</v>
+        <v>4668.098089277918</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -27700,7 +27700,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="5">
-        <v>5782.056684216958</v>
+        <v>4575.506436792805</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -27708,7 +27708,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="5">
-        <v>6136.955465857537</v>
+        <v>4279.332178854458</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -27716,7 +27716,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="5">
-        <v>4558.58240846536</v>
+        <v>4604.239544162395</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -27724,7 +27724,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="5">
-        <v>6124.894510254049</v>
+        <v>5127.047782806721</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -27732,7 +27732,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="5">
-        <v>4715.402156697171</v>
+        <v>4317.979952107029</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -27740,7 +27740,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="5">
-        <v>4576.325003228805</v>
+        <v>5024.219491059201</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -27748,7 +27748,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="5">
-        <v>4739.598594677116</v>
+        <v>5751.854195247517</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -27756,7 +27756,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="5">
-        <v>5657.386080119344</v>
+        <v>6207.631409275693</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -27764,7 +27764,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="5">
-        <v>5721.023877106346</v>
+        <v>5634.861120373693</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -27772,7 +27772,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="5">
-        <v>5504.868944539828</v>
+        <v>4811.057217630007</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -27780,7 +27780,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="5">
-        <v>4843.358151790929</v>
+        <v>6048.528409972618</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -27788,7 +27788,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="5">
-        <v>5172.766509871729</v>
+        <v>5949.830845211402</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -27796,7 +27796,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="5">
-        <v>5091.585870906898</v>
+        <v>6183.794395942707</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -27804,7 +27804,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="5">
-        <v>4901.981962733788</v>
+        <v>5949.845636018757</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -27812,7 +27812,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="5">
-        <v>5906.720503382409</v>
+        <v>5082.740605395726</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -27820,7 +27820,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="5">
-        <v>5970.03354017731</v>
+        <v>5027.272111060692</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -27828,7 +27828,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="5">
-        <v>4632.517870984801</v>
+        <v>3807.321092859131</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -27836,7 +27836,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="5">
-        <v>4989.674257266393</v>
+        <v>5697.946987878164</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -27844,7 +27844,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="5">
-        <v>4252.12772274762</v>
+        <v>5652.739091375674</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -27852,7 +27852,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="5">
-        <v>5011.628048549236</v>
+        <v>5041.425104135352</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -27860,7 +27860,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="5">
-        <v>5153.996288698624</v>
+        <v>6355.36555547591</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -27868,7 +27868,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="5">
-        <v>5505.589934951476</v>
+        <v>4157.220219654249</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -27876,7 +27876,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="5">
-        <v>5229.542553245881</v>
+        <v>4881.018068238131</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -27884,7 +27884,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="5">
-        <v>6010.288533146026</v>
+        <v>5327.468016732081</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -27892,7 +27892,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="5">
-        <v>5438.518714817463</v>
+        <v>4931.159437728979</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -27900,7 +27900,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="5">
-        <v>5004.774405958119</v>
+        <v>5593.85544427113</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -27908,7 +27908,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="5">
-        <v>6002.237238698693</v>
+        <v>6032.350231682867</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -27916,7 +27916,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="5">
-        <v>5348.580532249135</v>
+        <v>5501.520415142359</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -27924,7 +27924,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="5">
-        <v>5735.75651243376</v>
+        <v>4181.134908940261</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -27932,7 +27932,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="5">
-        <v>4044.678208447768</v>
+        <v>4402.681654807602</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -27940,7 +27940,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="5">
-        <v>6243.99243557418</v>
+        <v>4045.294602421516</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -27948,7 +27948,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="5">
-        <v>4968.456867454138</v>
+        <v>5499.089317673805</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -27956,7 +27956,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="5">
-        <v>4652.707965504182</v>
+        <v>5387.514221407114</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -27964,7 +27964,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="5">
-        <v>5456.302843735596</v>
+        <v>5069.958596432879</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -27972,7 +27972,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="5">
-        <v>5194.752338300362</v>
+        <v>5875.064052138219</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -27980,7 +27980,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="5">
-        <v>6420.429191585375</v>
+        <v>5612.838800889906</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -27988,7 +27988,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="5">
-        <v>4135.600126626641</v>
+        <v>4795.325529630793</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -27996,7 +27996,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="5">
-        <v>4767.744903622586</v>
+        <v>5464.639433860861</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -28004,7 +28004,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="5">
-        <v>4543.665050031427</v>
+        <v>4915.962681077014</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -28012,7 +28012,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="5">
-        <v>4516.288299614474</v>
+        <v>4719.117429743585</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -28020,7 +28020,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="5">
-        <v>6036.895756862838</v>
+        <v>5991.853374918239</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -28028,7 +28028,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="5">
-        <v>3898.432457753646</v>
+        <v>5325.028148521033</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -28036,7 +28036,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="5">
-        <v>5330.854071883525</v>
+        <v>5946.985204796494</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -28044,7 +28044,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="5">
-        <v>4090.233160670445</v>
+        <v>5980.285253516446</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -28052,7 +28052,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="5">
-        <v>4517.198793940108</v>
+        <v>4991.024737779226</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -28060,7 +28060,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="5">
-        <v>5550.213915743957</v>
+        <v>3908.579470864787</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -28068,7 +28068,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="5">
-        <v>4598.53593415885</v>
+        <v>4484.681634340994</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -28076,7 +28076,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="5">
-        <v>4783.022414409933</v>
+        <v>5301.480687786058</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -28084,7 +28084,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="5">
-        <v>4927.755818298697</v>
+        <v>5166.635053505272</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -28092,7 +28092,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="5">
-        <v>4880.56574141821</v>
+        <v>4701.028978576142</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -28100,7 +28100,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="5">
-        <v>5246.092362165254</v>
+        <v>3952.500055987301</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -28108,7 +28108,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="5">
-        <v>3913.315444960811</v>
+        <v>4765.622407153152</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -28116,7 +28116,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="5">
-        <v>4339.651647087954</v>
+        <v>6077.547306776908</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -28124,7 +28124,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="5">
-        <v>5067.483655053935</v>
+        <v>6042.545379925254</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -28132,7 +28132,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="5">
-        <v>5718.076436255235</v>
+        <v>5335.597918153031</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -28140,7 +28140,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="5">
-        <v>4056.784507429652</v>
+        <v>6512.058867933663</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -28148,7 +28148,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="5">
-        <v>5649.855856387092</v>
+        <v>6903.116039549393</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -28156,7 +28156,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="5">
-        <v>3961.200846209434</v>
+        <v>6101.466867586143</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -28164,7 +28164,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="5">
-        <v>5978.765880168039</v>
+        <v>6608.099453167082</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -28172,7 +28172,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="5">
-        <v>6156.742400276363</v>
+        <v>6357.742769793311</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -28180,7 +28180,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="5">
-        <v>4830.063167900211</v>
+        <v>4824.944176621743</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -28188,7 +28188,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="5">
-        <v>5973.570927630987</v>
+        <v>4883.981058086415</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -28196,7 +28196,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="5">
-        <v>4394.417776941415</v>
+        <v>4165.285933075309</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -28204,7 +28204,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="5">
-        <v>4900.802462224895</v>
+        <v>4747.453482049104</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -28212,7 +28212,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="5">
-        <v>4687.522371342649</v>
+        <v>4015.932318883563</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -28220,7 +28220,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="5">
-        <v>5770.226603272514</v>
+        <v>6190.391276855592</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -28228,7 +28228,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="5">
-        <v>5975.961417379996</v>
+        <v>4682.524412517375</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -28236,7 +28236,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="5">
-        <v>5317.665116919969</v>
+        <v>6726.057103975839</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -28244,7 +28244,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="5">
-        <v>5142.691330348143</v>
+        <v>4642.905014461246</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -28252,7 +28252,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="5">
-        <v>5751.290147581837</v>
+        <v>4647.266499990566</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -28260,7 +28260,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="5">
-        <v>5565.079606370534</v>
+        <v>5249.631729206064</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -28268,7 +28268,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="5">
-        <v>6247.332203370132</v>
+        <v>6183.519845557567</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -28276,7 +28276,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="5">
-        <v>4461.567112902125</v>
+        <v>6027.749179265721</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -28284,7 +28284,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="5">
-        <v>5626.275486140601</v>
+        <v>6210.640320667586</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -28292,7 +28292,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="5">
-        <v>4581.439044378661</v>
+        <v>5425.605703495556</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -28300,7 +28300,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="5">
-        <v>4815.128689957987</v>
+        <v>5683.923599937145</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -28308,7 +28308,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="5">
-        <v>4187.512223239549</v>
+        <v>6043.839899892564</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -28316,7 +28316,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="5">
-        <v>5555.624207059474</v>
+        <v>5601.602205664628</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -28324,7 +28324,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="5">
-        <v>4666.882870244042</v>
+        <v>5123.478675420693</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -28332,7 +28332,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="5">
-        <v>4048.696966406763</v>
+        <v>5502.477483612</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -28340,7 +28340,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="5">
-        <v>5087.995266057602</v>
+        <v>5942.348847577187</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -28348,7 +28348,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="5">
-        <v>5567.219480121781</v>
+        <v>4256.039840799657</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -28356,7 +28356,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="5">
-        <v>4343.060789425296</v>
+        <v>4697.087484928609</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -28364,7 +28364,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="5">
-        <v>4246.753460965268</v>
+        <v>5731.103691206258</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -28372,7 +28372,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="5">
-        <v>4719.288811137039</v>
+        <v>5053.008970596271</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -28380,7 +28380,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="5">
-        <v>5015.660662512497</v>
+        <v>5483.32292945232</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -28388,7 +28388,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="5">
-        <v>6601.494931756003</v>
+        <v>4378.909648882774</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -28396,7 +28396,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="5">
-        <v>5816.655912026294</v>
+        <v>5820.574552000986</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -28404,7 +28404,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="5">
-        <v>4875.214236221922</v>
+        <v>4170.119718081428</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -28412,7 +28412,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="5">
-        <v>5779.93125753908</v>
+        <v>4798.080710463769</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -28420,7 +28420,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="5">
-        <v>4692.010565749631</v>
+        <v>5863.021175225155</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -28428,7 +28428,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="5">
-        <v>5540.74786259243</v>
+        <v>4863.196129856451</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -28436,7 +28436,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="5">
-        <v>4677.581255949156</v>
+        <v>6354.195669217379</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -28444,7 +28444,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="5">
-        <v>5340.009652760749</v>
+        <v>4673.676279096954</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -28452,7 +28452,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="5">
-        <v>4821.025705328498</v>
+        <v>4395.914422023511</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -28460,7 +28460,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="5">
-        <v>4426.337531444015</v>
+        <v>3580.117185935141</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -28468,7 +28468,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="5">
-        <v>5634.174899828473</v>
+        <v>4973.872038310103</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -28476,7 +28476,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="5">
-        <v>5516.764180347926</v>
+        <v>5386.895783086705</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -28484,7 +28484,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="5">
-        <v>5132.668369548968</v>
+        <v>6255.512830622743</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -28492,7 +28492,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="5">
-        <v>6420.210263895638</v>
+        <v>6202.921153205655</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -28500,7 +28500,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="5">
-        <v>5234.997229907251</v>
+        <v>4645.532337329567</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -28508,7 +28508,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="5">
-        <v>5090.648519068763</v>
+        <v>5253.228982747733</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -28516,7 +28516,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="5">
-        <v>6099.672349662162</v>
+        <v>5752.511429798335</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -28524,7 +28524,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="5">
-        <v>6504.754515116088</v>
+        <v>5436.516866256296</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -28532,7 +28532,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="5">
-        <v>4284.93727495374</v>
+        <v>5718.701428583121</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -28540,7 +28540,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="5">
-        <v>3857.716332759409</v>
+        <v>4127.832359079711</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -28548,7 +28548,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="5">
-        <v>5489.157899038657</v>
+        <v>6207.703371962016</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -28556,7 +28556,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="5">
-        <v>6555.375480370549</v>
+        <v>6007.045162621618</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -28564,7 +28564,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="5">
-        <v>4281.045165116298</v>
+        <v>4440.913675494795</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -28572,7 +28572,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="5">
-        <v>4404.809770056773</v>
+        <v>4364.845145276036</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -28580,7 +28580,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="5">
-        <v>4424.94200267324</v>
+        <v>6107.874190274502</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -28588,7 +28588,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="5">
-        <v>4543.267893248564</v>
+        <v>4441.657110061589</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -28596,7 +28596,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="5">
-        <v>5591.509034071753</v>
+        <v>4315.337022241108</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -28604,7 +28604,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="5">
-        <v>5991.813737140445</v>
+        <v>6146.201549761039</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -28612,7 +28612,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="5">
-        <v>4414.264053805591</v>
+        <v>4683.16907543041</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -28620,7 +28620,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="5">
-        <v>5801.298371367443</v>
+        <v>5761.282333121699</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -28628,7 +28628,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="5">
-        <v>3918.388750029057</v>
+        <v>6448.222559783693</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -28636,7 +28636,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="5">
-        <v>5586.824132612245</v>
+        <v>4061.972743836888</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -28644,7 +28644,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="5">
-        <v>4912.879816788026</v>
+        <v>5924.352214931692</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -28652,7 +28652,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="5">
-        <v>5006.030198200744</v>
+        <v>5579.409466735036</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -28660,7 +28660,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="5">
-        <v>5847.590450759993</v>
+        <v>6336.345064598901</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -28668,7 +28668,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="5">
-        <v>4415.243494121141</v>
+        <v>5671.837077946528</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -28676,7 +28676,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="5">
-        <v>4968.757779151483</v>
+        <v>5050.89057270731</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -28684,7 +28684,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="5">
-        <v>4364.859113806793</v>
+        <v>5600.631236142478</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -28692,7 +28692,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="5">
-        <v>5693.816807503295</v>
+        <v>4946.36549786387</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -28700,7 +28700,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="5">
-        <v>6123.399196516409</v>
+        <v>4207.578766016638</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -28708,7 +28708,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="5">
-        <v>6149.526921723713</v>
+        <v>5176.789936333775</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -28716,7 +28716,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="5">
-        <v>5652.583626648526</v>
+        <v>4331.910244097735</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -28724,7 +28724,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="5">
-        <v>4409.315944525654</v>
+        <v>5779.354848287021</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -28732,7 +28732,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="5">
-        <v>6225.96822389943</v>
+        <v>4328.621122416551</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -28740,7 +28740,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="5">
-        <v>5037.970160093437</v>
+        <v>4792.579985818346</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -28748,7 +28748,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="5">
-        <v>6176.352981049091</v>
+        <v>4044.209072122381</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -28756,7 +28756,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="5">
-        <v>3760.791312074031</v>
+        <v>4732.107446340115</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -28764,7 +28764,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="5">
-        <v>4782.736829747664</v>
+        <v>4936.201451133343</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -28772,7 +28772,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="5">
-        <v>6260.776345666293</v>
+        <v>5411.832012758708</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -28780,7 +28780,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="5">
-        <v>4214.540197084893</v>
+        <v>5214.181879179959</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -28788,7 +28788,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="5">
-        <v>4760.645132871014</v>
+        <v>6109.321736002571</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -28796,7 +28796,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="5">
-        <v>6159.520793494719</v>
+        <v>6441.988863205171</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -28804,7 +28804,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="5">
-        <v>5301.952195228163</v>
+        <v>5352.438932902063</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -28812,7 +28812,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="5">
-        <v>6504.498426923811</v>
+        <v>4540.400042056161</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -28820,7 +28820,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="5">
-        <v>4110.688695498856</v>
+        <v>6007.262166360742</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -28828,7 +28828,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="5">
-        <v>4256.80309510668</v>
+        <v>5585.747823895011</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -28836,7 +28836,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="5">
-        <v>4985.89426599845</v>
+        <v>4564.712473549314</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -28844,7 +28844,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="5">
-        <v>4661.273001677433</v>
+        <v>4345.494392491767</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -28852,7 +28852,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="5">
-        <v>5483.92660491125</v>
+        <v>4746.436760076904</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -28860,7 +28860,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="5">
-        <v>6404.255551490709</v>
+        <v>5796.263949130169</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -28868,7 +28868,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="5">
-        <v>5811.984418517249</v>
+        <v>6201.296037232662</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -28876,7 +28876,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="5">
-        <v>6054.971909663364</v>
+        <v>4891.880902825155</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -28884,7 +28884,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="5">
-        <v>6202.21615474602</v>
+        <v>5138.041674575808</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -28892,7 +28892,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="5">
-        <v>3937.899200490255</v>
+        <v>4147.014085709706</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -28900,7 +28900,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="5">
-        <v>4478.942060028132</v>
+        <v>4015.140324898845</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -28908,7 +28908,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="5">
-        <v>5091.049743128681</v>
+        <v>3812.761033574659</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -28916,7 +28916,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="5">
-        <v>4752.206000465614</v>
+        <v>4754.488522218252</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -28924,7 +28924,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="5">
-        <v>4597.352692037217</v>
+        <v>6323.303608110836</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -28932,7 +28932,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="5">
-        <v>5728.99816024902</v>
+        <v>6162.543039698504</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -28940,7 +28940,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="5">
-        <v>4941.212358918176</v>
+        <v>5072.609957589581</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -28948,7 +28948,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="5">
-        <v>3815.839926957648</v>
+        <v>5920.224751287373</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -28956,7 +28956,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="5">
-        <v>5065.218157578928</v>
+        <v>5773.722005068821</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -28964,7 +28964,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="5">
-        <v>4015.616757095241</v>
+        <v>6009.775480645525</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -28972,7 +28972,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="5">
-        <v>5544.537701017121</v>
+        <v>3642.856504075457</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -28980,7 +28980,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="5">
-        <v>5470.083333274886</v>
+        <v>6221.176508809641</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -28988,7 +28988,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="5">
-        <v>4338.188868407352</v>
+        <v>4817.595508222822</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -28996,7 +28996,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="5">
-        <v>5392.085115263916</v>
+        <v>4761.398187540583</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -29004,7 +29004,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="5">
-        <v>5494.028964123765</v>
+        <v>5824.270687368162</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -29012,7 +29012,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="5">
-        <v>6310.606455438503</v>
+        <v>5002.038868388778</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -29020,7 +29020,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="5">
-        <v>4775.002897564349</v>
+        <v>6421.664467091094</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -29028,7 +29028,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="5">
-        <v>6318.488435854481</v>
+        <v>5939.246501940269</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -29036,7 +29036,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="5">
-        <v>6254.127821935601</v>
+        <v>4314.525585275495</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -29044,7 +29044,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="5">
-        <v>6326.876741243698</v>
+        <v>5967.754904995201</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -29052,7 +29052,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="5">
-        <v>5818.691678178549</v>
+        <v>4977.263849521702</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -29060,7 +29060,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="5">
-        <v>5558.826077285074</v>
+        <v>5587.357099403351</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -29068,7 +29068,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="5">
-        <v>6434.015217570038</v>
+        <v>3835.742456284692</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -29076,7 +29076,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="5">
-        <v>5025.657300325469</v>
+        <v>4583.008760501933</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -29084,7 +29084,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="5">
-        <v>6043.869234285906</v>
+        <v>4467.84977601261</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -29092,7 +29092,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="5">
-        <v>4547.15591717792</v>
+        <v>4670.796436889993</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -29100,7 +29100,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="5">
-        <v>5196.33920080132</v>
+        <v>4441.125761265967</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -29108,7 +29108,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="5">
-        <v>4879.683047356297</v>
+        <v>3855.538229461145</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -29116,7 +29116,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="5">
-        <v>5617.232455077356</v>
+        <v>4843.843032326715</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -29124,7 +29124,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="5">
-        <v>5152.306761617362</v>
+        <v>4330.807893156409</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -29132,7 +29132,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="5">
-        <v>4303.577091233607</v>
+        <v>4093.277260632194</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -29140,7 +29140,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="5">
-        <v>5971.010980528732</v>
+        <v>6037.620310068689</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -29148,7 +29148,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="5">
-        <v>5288.411915003011</v>
+        <v>5131.213608614666</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -29156,7 +29156,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="5">
-        <v>5184.280757545244</v>
+        <v>5983.976714694548</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -29164,7 +29164,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="5">
-        <v>4204.178252875914</v>
+        <v>4043.123706183465</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -29172,7 +29172,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="5">
-        <v>4190.572813416007</v>
+        <v>6080.554076160939</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -29180,7 +29180,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="5">
-        <v>5032.141403081565</v>
+        <v>4920.029606698033</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -29188,7 +29188,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="5">
-        <v>4144.038263774519</v>
+        <v>4384.811356051424</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -29196,7 +29196,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="5">
-        <v>5273.91591218326</v>
+        <v>5993.044036504624</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -29204,7 +29204,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="5">
-        <v>3881.366284310419</v>
+        <v>5738.30288541613</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -29212,7 +29212,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="5">
-        <v>4525.170857484894</v>
+        <v>5557.768456108313</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -29220,7 +29220,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="5">
-        <v>5643.37691384381</v>
+        <v>5281.847392252965</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -29228,7 +29228,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="5">
-        <v>5075.25476058685</v>
+        <v>5790.456996348908</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -29236,7 +29236,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="5">
-        <v>3958.109862829255</v>
+        <v>4901.255761371488</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -29244,7 +29244,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="5">
-        <v>4030.814458484448</v>
+        <v>6125.783313500953</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -29252,7 +29252,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="5">
-        <v>4843.300304561507</v>
+        <v>5416.473263595428</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -29260,7 +29260,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="5">
-        <v>6140.569832335949</v>
+        <v>5926.781618782524</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -29268,7 +29268,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="5">
-        <v>4580.79459627609</v>
+        <v>5268.024757191271</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -29276,7 +29276,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="5">
-        <v>5811.358393493813</v>
+        <v>5462.925272874019</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -29284,7 +29284,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="5">
-        <v>5202.603928814274</v>
+        <v>5723.583664534026</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -29292,7 +29292,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="5">
-        <v>4312.001853848422</v>
+        <v>4825.46160996571</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -29300,7 +29300,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="5">
-        <v>5405.821463512273</v>
+        <v>5376.510468033066</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -29308,7 +29308,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="5">
-        <v>6045.456707211707</v>
+        <v>4995.138655953666</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -29316,7 +29316,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="5">
-        <v>4157.974741174383</v>
+        <v>5896.740088157645</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -29324,7 +29324,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="5">
-        <v>4334.688177740566</v>
+        <v>4948.328786324977</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -29332,7 +29332,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="5">
-        <v>4259.175653694442</v>
+        <v>5091.109573847391</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -29340,7 +29340,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="5">
-        <v>5416.287389379853</v>
+        <v>4277.040011600814</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -29348,7 +29348,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="5">
-        <v>4411.627358180449</v>
+        <v>5266.937091788744</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -29356,7 +29356,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="5">
-        <v>6753.507599543351</v>
+        <v>4876.532794993752</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -29364,7 +29364,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="5">
-        <v>5314.142987579725</v>
+        <v>4182.317967288172</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -29372,7 +29372,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="5">
-        <v>5070.063473103813</v>
+        <v>6227.494292803354</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -29380,7 +29380,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="5">
-        <v>5069.499547856828</v>
+        <v>5092.604598280731</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -29388,7 +29388,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="5">
-        <v>4837.74556032458</v>
+        <v>4961.523432727754</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -29396,7 +29396,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="5">
-        <v>5269.270296024472</v>
+        <v>5326.481139118467</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -29404,7 +29404,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="5">
-        <v>4529.651902973716</v>
+        <v>6148.698289838536</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -29412,7 +29412,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="5">
-        <v>5494.504210663406</v>
+        <v>4322.882509511602</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -29420,7 +29420,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="5">
-        <v>3948.635776209449</v>
+        <v>5746.66278690031</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -29428,7 +29428,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="5">
-        <v>4501.067028131085</v>
+        <v>4862.987116045492</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -29436,7 +29436,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="5">
-        <v>5603.869755922608</v>
+        <v>5950.579777713156</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -29444,7 +29444,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="5">
-        <v>4420.935661328534</v>
+        <v>6052.152564103116</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -29452,7 +29452,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="5">
-        <v>4455.455130000532</v>
+        <v>5578.8123626746</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -29460,7 +29460,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="5">
-        <v>6109.343722847176</v>
+        <v>5538.766489639811</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -29468,7 +29468,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="5">
-        <v>5891.193962754095</v>
+        <v>4483.250260741337</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -29476,7 +29476,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="5">
-        <v>6185.610510290573</v>
+        <v>5359.255379759208</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -29484,7 +29484,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="5">
-        <v>5984.288694034121</v>
+        <v>5248.177469015239</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -29492,7 +29492,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="5">
-        <v>4508.47092921376</v>
+        <v>5682.847878087191</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -29500,7 +29500,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="5">
-        <v>4486.213991191622</v>
+        <v>5275.563828107891</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -29508,7 +29508,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="5">
-        <v>5132.155377865634</v>
+        <v>5633.52877786775</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -29516,7 +29516,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="5">
-        <v>5588.061882000699</v>
+        <v>6238.173371451794</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -29524,7 +29524,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="5">
-        <v>4861.83691245919</v>
+        <v>5951.237475230869</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -29532,7 +29532,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="5">
-        <v>4954.970900084056</v>
+        <v>4384.528519246726</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -29540,7 +29540,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="5">
-        <v>4548.384317507012</v>
+        <v>5956.156240716556</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -29548,7 +29548,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="5">
-        <v>4239.111826508072</v>
+        <v>4997.131554324948</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -29556,7 +29556,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="5">
-        <v>4847.353247313433</v>
+        <v>6363.33349950892</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -29564,7 +29564,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="5">
-        <v>4407.385867269858</v>
+        <v>6152.376964872021</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -29572,7 +29572,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="5">
-        <v>6552.756152648772</v>
+        <v>4253.008468969158</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -29580,7 +29580,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="5">
-        <v>6215.000942324113</v>
+        <v>5235.166635627164</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -29588,7 +29588,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="5">
-        <v>3699.713737917109</v>
+        <v>4845.651911553361</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -29596,7 +29596,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="5">
-        <v>6124.7089783487</v>
+        <v>4879.541631234565</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -29604,7 +29604,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="5">
-        <v>6059.315324714356</v>
+        <v>4784.46637131213</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -29612,7 +29612,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="5">
-        <v>4096.274007728182</v>
+        <v>4128.305104614346</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -29620,7 +29620,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="5">
-        <v>6226.686706487137</v>
+        <v>5870.331571544954</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -29628,7 +29628,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="5">
-        <v>3921.743609553977</v>
+        <v>4328.561943074017</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -29636,7 +29636,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="5">
-        <v>5293.732393737827</v>
+        <v>5478.802425251281</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -29644,7 +29644,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="5">
-        <v>4284.374502644925</v>
+        <v>6481.153547527512</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -29652,7 +29652,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="5">
-        <v>4029.609342943394</v>
+        <v>4644.079924946965</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -29660,7 +29660,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="5">
-        <v>6377.14419813536</v>
+        <v>4288.850641606229</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -29668,7 +29668,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="5">
-        <v>5058.64821801952</v>
+        <v>4814.102015053769</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -29676,7 +29676,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="5">
-        <v>6009.004961828772</v>
+        <v>5226.322849524185</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -29684,7 +29684,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="5">
-        <v>4896.015036211254</v>
+        <v>5679.337797118051</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -29692,7 +29692,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="5">
-        <v>3597.305694267639</v>
+        <v>5675.26916258053</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -29700,7 +29700,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="5">
-        <v>3937.11838307717</v>
+        <v>5421.085537438841</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -29708,7 +29708,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="5">
-        <v>6534.039691468466</v>
+        <v>6631.539085048895</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="5">
-        <v>4341.51147322641</v>
+        <v>4163.714929491227</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="5">
-        <v>3950.360606743525</v>
+        <v>4917.112931493329</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="5">
-        <v>3933.717979644974</v>
+        <v>4311.910387461833</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="5">
-        <v>5943.521435927385</v>
+        <v>5676.15015116622</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="5">
-        <v>5038.305463677004</v>
+        <v>6198.158303987724</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="5">
-        <v>5989.082121429657</v>
+        <v>6509.14816499826</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -29764,7 +29764,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="5">
-        <v>4068.536274394822</v>
+        <v>6059.107501779126</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -29772,7 +29772,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="5">
-        <v>5341.698281514849</v>
+        <v>3956.618421025924</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -29780,7 +29780,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="5">
-        <v>5795.958565861438</v>
+        <v>6519.36432895206</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -29788,7 +29788,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="5">
-        <v>4514.661391781287</v>
+        <v>5406.947878354457</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -29796,7 +29796,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="5">
-        <v>4559.634697517917</v>
+        <v>5490.58511501704</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -29804,7 +29804,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="5">
-        <v>5676.923668470091</v>
+        <v>5304.452064447606</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -29812,7 +29812,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="5">
-        <v>6056.600701216779</v>
+        <v>5422.866012311786</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -29820,7 +29820,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="5">
-        <v>6315.31088226207</v>
+        <v>6628.906276461463</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -29828,7 +29828,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="5">
-        <v>4424.115811449451</v>
+        <v>4486.213968028886</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -29836,7 +29836,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="5">
-        <v>6013.046821824209</v>
+        <v>4333.007841032177</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -29844,7 +29844,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="5">
-        <v>5989.8632843653</v>
+        <v>4537.249696108559</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -29852,7 +29852,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="5">
-        <v>4387.914921664667</v>
+        <v>5572.84829583529</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -29860,7 +29860,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="5">
-        <v>6333.001320693701</v>
+        <v>6300.539590600501</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -29868,7 +29868,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="5">
-        <v>5514.820744768473</v>
+        <v>4518.078498517476</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -29876,7 +29876,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="5">
-        <v>5852.569163667693</v>
+        <v>4358.142686958799</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -29884,7 +29884,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="5">
-        <v>5320.765724195127</v>
+        <v>5449.766679423829</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -29892,7 +29892,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="5">
-        <v>4867.43170608838</v>
+        <v>5539.473974865209</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -29900,7 +29900,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="5">
-        <v>5246.350914739045</v>
+        <v>3801.93541839538</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -29908,7 +29908,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="5">
-        <v>4171.147086862873</v>
+        <v>5182.499700528224</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -29916,7 +29916,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="5">
-        <v>5131.895959668009</v>
+        <v>4246.465975343488</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -29924,7 +29924,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="5">
-        <v>4819.103487594175</v>
+        <v>4914.436171127552</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -29932,7 +29932,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="5">
-        <v>6258.42834741807</v>
+        <v>5155.519215154339</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -29940,7 +29940,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="5">
-        <v>4757.472772404343</v>
+        <v>6458.815662144901</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -29948,7 +29948,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="5">
-        <v>5241.766135634134</v>
+        <v>4908.408019819539</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -29956,7 +29956,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="5">
-        <v>5689.524484047859</v>
+        <v>3960.161720892028</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -29964,7 +29964,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="5">
-        <v>5926.841133089187</v>
+        <v>3976.021126007544</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -29972,7 +29972,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="5">
-        <v>4992.681326716144</v>
+        <v>4176.385842134901</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -29980,7 +29980,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="5">
-        <v>5153.244473415832</v>
+        <v>6172.715404016835</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -29988,7 +29988,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="5">
-        <v>5683.400287250562</v>
+        <v>4785.414066989392</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -29996,7 +29996,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="5">
-        <v>3992.003904417073</v>
+        <v>3883.518267551192</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -30004,7 +30004,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="5">
-        <v>5316.187867912532</v>
+        <v>4541.695499593716</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -30012,7 +30012,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="5">
-        <v>5066.107886750921</v>
+        <v>5365.958986896273</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -30020,7 +30020,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="5">
-        <v>5796.16983644777</v>
+        <v>5215.774975154931</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -30028,7 +30028,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="5">
-        <v>5864.650962389378</v>
+        <v>4470.723676916354</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -30036,7 +30036,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="5">
-        <v>5547.739339053834</v>
+        <v>3835.857094445309</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -30044,7 +30044,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="5">
-        <v>6010.250311217511</v>
+        <v>5353.655044555437</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -30052,7 +30052,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="5">
-        <v>6382.766717054428</v>
+        <v>6420.042303928355</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -30060,7 +30060,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="5">
-        <v>5813.201045762941</v>
+        <v>4776.432159042898</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -30068,7 +30068,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="5">
-        <v>4377.688889156369</v>
+        <v>5678.674827540449</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -30076,7 +30076,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="5">
-        <v>5792.864107451385</v>
+        <v>5340.462323555113</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -30084,7 +30084,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="5">
-        <v>3820.250843983055</v>
+        <v>6440.906048302387</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -30092,7 +30092,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="5">
-        <v>4396.983071261927</v>
+        <v>4891.607413755803</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -30100,7 +30100,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="5">
-        <v>5096.339929314752</v>
+        <v>6294.025246379711</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -30108,7 +30108,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="5">
-        <v>6075.84349088827</v>
+        <v>4803.149658490761</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -30116,7 +30116,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="5">
-        <v>5500.350711313238</v>
+        <v>5511.645160154756</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -30124,7 +30124,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="5">
-        <v>5707.634230771202</v>
+        <v>5843.021182729031</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -30132,7 +30132,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="5">
-        <v>5955.371316424745</v>
+        <v>4802.700932842685</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -30140,7 +30140,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="5">
-        <v>4092.415023153333</v>
+        <v>5330.045330561467</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -30148,7 +30148,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="5">
-        <v>6112.952500849793</v>
+        <v>5232.432026651268</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -30156,7 +30156,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="5">
-        <v>4175.810502363111</v>
+        <v>4531.674342728138</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -30164,7 +30164,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="5">
-        <v>4407.426629800495</v>
+        <v>5368.973306342477</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -30172,7 +30172,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="5">
-        <v>4494.831558463872</v>
+        <v>4491.602427253975</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -30180,7 +30180,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="5">
-        <v>4187.451421438754</v>
+        <v>4614.763233032826</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -30188,7 +30188,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="5">
-        <v>4801.09132424379</v>
+        <v>6060.969650128384</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -30196,7 +30196,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="5">
-        <v>5002.566118310975</v>
+        <v>4723.827606798037</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -30204,7 +30204,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="5">
-        <v>5524.403133475314</v>
+        <v>3855.310035800879</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -30212,7 +30212,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="5">
-        <v>4358.959315878389</v>
+        <v>5216.146823647693</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -30220,7 +30220,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="5">
-        <v>6113.033724670971</v>
+        <v>5963.775542165717</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -30228,7 +30228,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="5">
-        <v>4677.390520344946</v>
+        <v>5684.087016704147</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -30236,7 +30236,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="5">
-        <v>6044.023344158196</v>
+        <v>4013.181327877594</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -30244,7 +30244,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="5">
-        <v>6129.520909843791</v>
+        <v>4295.66539348703</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -30252,7 +30252,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="5">
-        <v>6196.46365213428</v>
+        <v>4455.44841261526</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -30260,7 +30260,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="5">
-        <v>5113.783886975168</v>
+        <v>4687.29202089269</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -30268,7 +30268,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="5">
-        <v>5934.830921061664</v>
+        <v>5674.148682663819</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -30276,7 +30276,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="5">
-        <v>4806.739575434774</v>
+        <v>5140.454510055563</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -30284,7 +30284,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="5">
-        <v>4680.748024990936</v>
+        <v>4149.748261313402</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -30292,7 +30292,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="5">
-        <v>5294.803801092896</v>
+        <v>4242.627767795158</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -30300,7 +30300,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="5">
-        <v>3982.492092269853</v>
+        <v>6148.612586390348</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -30308,7 +30308,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="5">
-        <v>5891.154669009275</v>
+        <v>4626.478011038175</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -30316,7 +30316,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="5">
-        <v>3987.973957733754</v>
+        <v>5579.29282680347</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -30324,7 +30324,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="5">
-        <v>4560.102786620441</v>
+        <v>4056.820733392594</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -30332,7 +30332,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="5">
-        <v>5763.289499453796</v>
+        <v>6180.391888949216</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -30340,7 +30340,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="5">
-        <v>6078.556674954062</v>
+        <v>6113.507940001814</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -30348,7 +30348,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="5">
-        <v>5999.716384520013</v>
+        <v>6085.433889264603</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -30356,7 +30356,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="5">
-        <v>4990.65822551237</v>
+        <v>5495.582561229472</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -30364,7 +30364,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="5">
-        <v>5580.340854928002</v>
+        <v>5396.580186456683</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -30372,7 +30372,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="5">
-        <v>4422.436333366621</v>
+        <v>4631.115566643904</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -30380,7 +30380,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="5">
-        <v>5327.89592180696</v>
+        <v>6262.148797068767</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -30388,7 +30388,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="5">
-        <v>6157.694917253116</v>
+        <v>5359.103407286719</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -30396,7 +30396,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="5">
-        <v>5810.761409779229</v>
+        <v>5798.061569761354</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -30404,7 +30404,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="5">
-        <v>4677.628910254</v>
+        <v>5397.547571513185</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -30412,7 +30412,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="5">
-        <v>4425.836429392886</v>
+        <v>4577.644708530757</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -30420,7 +30420,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="5">
-        <v>5242.738836858077</v>
+        <v>5448.500371679633</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -30428,7 +30428,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="5">
-        <v>5710.567997237669</v>
+        <v>4666.781315817873</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -30436,7 +30436,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="5">
-        <v>4857.622764573326</v>
+        <v>5794.648175070995</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -30444,7 +30444,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="5">
-        <v>5512.608455486873</v>
+        <v>6313.552451937274</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -30452,7 +30452,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="5">
-        <v>5799.004818745514</v>
+        <v>4936.902299291888</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -30460,7 +30460,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="5">
-        <v>4673.80214636581</v>
+        <v>5737.631001874375</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -30468,7 +30468,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="5">
-        <v>4598.609551571052</v>
+        <v>4309.020481614366</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -30476,7 +30476,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="5">
-        <v>5169.037509429288</v>
+        <v>5608.368946213152</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -30484,7 +30484,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="5">
-        <v>5482.789539863122</v>
+        <v>4018.824824260314</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -30492,7 +30492,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="5">
-        <v>5759.049281940665</v>
+        <v>5715.416893167934</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -30500,7 +30500,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="5">
-        <v>4301.654611535671</v>
+        <v>4247.024592065859</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -30508,7 +30508,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="5">
-        <v>4103.798105719583</v>
+        <v>4453.655031042754</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -30516,7 +30516,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="5">
-        <v>5082.464016637375</v>
+        <v>5758.879901825859</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -30524,7 +30524,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="5">
-        <v>4830.187103928202</v>
+        <v>6048.033547873606</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -30532,7 +30532,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="5">
-        <v>5033.275504736856</v>
+        <v>5589.502575375556</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -30540,7 +30540,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="5">
-        <v>4043.271288504671</v>
+        <v>5946.118641945131</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -30548,7 +30548,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="5">
-        <v>6445.862037481167</v>
+        <v>4187.189736076877</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -30556,7 +30556,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="5">
-        <v>5601.677108070531</v>
+        <v>3956.131444576364</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -30564,7 +30564,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="5">
-        <v>3786.681784117864</v>
+        <v>5139.584442220788</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -30572,7 +30572,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="5">
-        <v>6265.734926148472</v>
+        <v>4701.036689458292</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -30580,7 +30580,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="5">
-        <v>5766.359543177664</v>
+        <v>4550.113334685526</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -30588,7 +30588,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="5">
-        <v>5369.423531931615</v>
+        <v>5733.979093549277</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -30596,7 +30596,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="5">
-        <v>6030.944031256838</v>
+        <v>4486.721740866604</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -30604,7 +30604,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="5">
-        <v>4949.093112513878</v>
+        <v>5049.003357573652</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -30612,7 +30612,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="5">
-        <v>3768.26876596423</v>
+        <v>6365.974740084052</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -30620,7 +30620,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="5">
-        <v>4445.720636042564</v>
+        <v>5778.071196959812</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -30628,7 +30628,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="5">
-        <v>4680.699228998586</v>
+        <v>5101.296878145408</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -30636,7 +30636,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="5">
-        <v>5923.501387878918</v>
+        <v>6252.322151081729</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -30644,7 +30644,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="5">
-        <v>6300.171922338613</v>
+        <v>6221.409588907563</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -30652,7 +30652,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="5">
-        <v>4357.935462509225</v>
+        <v>4032.458545365605</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -30660,7 +30660,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="5">
-        <v>4398.945277373705</v>
+        <v>5147.222358346592</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -30668,7 +30668,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="5">
-        <v>5325.180382602238</v>
+        <v>5388.731409507902</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -30676,7 +30676,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="5">
-        <v>6528.852813783344</v>
+        <v>4429.884950373251</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -30684,7 +30684,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="5">
-        <v>4878.311451504158</v>
+        <v>4116.244105820291</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -30692,7 +30692,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="5">
-        <v>4328.159191565194</v>
+        <v>6461.731498740221</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -30700,7 +30700,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="5">
-        <v>6489.788982794896</v>
+        <v>5182.582011338764</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -30708,7 +30708,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="5">
-        <v>4300.105839547334</v>
+        <v>5311.169820580111</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -30716,7 +30716,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="5">
-        <v>4544.864141000936</v>
+        <v>5633.405373174232</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -30724,7 +30724,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="5">
-        <v>5368.735649645017</v>
+        <v>5419.395630585342</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -30732,7 +30732,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="5">
-        <v>5759.938825247888</v>
+        <v>5767.037346964109</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -30740,7 +30740,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="5">
-        <v>4295.39165569808</v>
+        <v>4009.488435294833</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -30748,7 +30748,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="5">
-        <v>4911.732088548032</v>
+        <v>5551.777686213421</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -30756,7 +30756,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="5">
-        <v>5515.073157581037</v>
+        <v>4531.761590954236</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -30764,7 +30764,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="5">
-        <v>6141.889331169677</v>
+        <v>6258.520028306162</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -30772,7 +30772,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="5">
-        <v>4716.723517587213</v>
+        <v>4972.36625449752</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -30780,7 +30780,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="5">
-        <v>4474.663989518637</v>
+        <v>5390.869687607589</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -30788,7 +30788,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="5">
-        <v>4797.787691938936</v>
+        <v>4845.64587535778</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -30796,7 +30796,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="5">
-        <v>5983.849610259054</v>
+        <v>6325.525590646252</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -30804,7 +30804,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="5">
-        <v>3917.108843766174</v>
+        <v>3915.813831653476</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -30812,7 +30812,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="5">
-        <v>5103.489216373616</v>
+        <v>5602.093252741803</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -30820,7 +30820,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="5">
-        <v>4634.991232786174</v>
+        <v>3982.758055097285</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -30828,7 +30828,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="5">
-        <v>4468.690427285951</v>
+        <v>6366.282885402475</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -30836,7 +30836,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="5">
-        <v>4287.987173464398</v>
+        <v>4136.167352996529</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -30844,7 +30844,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="5">
-        <v>4051.475659299768</v>
+        <v>5100.332741320659</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -30852,7 +30852,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="5">
-        <v>3906.9689484332</v>
+        <v>6695.539057145586</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -30860,7 +30860,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="5">
-        <v>4683.289649239891</v>
+        <v>5990.834470333752</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -30868,7 +30868,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="5">
-        <v>5347.15478002307</v>
+        <v>5112.597078308565</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -30876,7 +30876,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="5">
-        <v>5390.174756570059</v>
+        <v>6100.56118330461</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -30884,7 +30884,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="5">
-        <v>5297.813810246113</v>
+        <v>6424.625059834121</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -30892,7 +30892,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="5">
-        <v>4408.411785201685</v>
+        <v>5244.659623327509</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -30900,7 +30900,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="5">
-        <v>5746.784244885988</v>
+        <v>4906.987785214972</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -30908,7 +30908,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="5">
-        <v>4918.779765753685</v>
+        <v>5819.109469794412</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -30916,7 +30916,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="5">
-        <v>5273.92771693642</v>
+        <v>5362.205300570405</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -30924,7 +30924,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="5">
-        <v>6451.555008655358</v>
+        <v>4452.380983542203</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -30932,7 +30932,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="5">
-        <v>4317.957501118738</v>
+        <v>4958.804806734593</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -30940,7 +30940,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="5">
-        <v>4381.006351634546</v>
+        <v>6350.200239686998</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -30948,7 +30948,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="5">
-        <v>4924.437632566543</v>
+        <v>4215.094572334743</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -30956,7 +30956,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="5">
-        <v>5438.891789419359</v>
+        <v>5452.20922575646</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -30964,7 +30964,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="5">
-        <v>3622.239751343321</v>
+        <v>5756.814652067517</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -30972,7 +30972,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="5">
-        <v>6200.164718725701</v>
+        <v>4119.551108052256</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -30980,7 +30980,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="5">
-        <v>4521.299880491642</v>
+        <v>5640.829491501609</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -30988,7 +30988,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="5">
-        <v>4902.170144482716</v>
+        <v>5816.978505471227</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -30996,7 +30996,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="5">
-        <v>5079.342082122467</v>
+        <v>4657.69740216958</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -31004,7 +31004,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="5">
-        <v>4721.539725928082</v>
+        <v>4619.136880927993</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -31012,7 +31012,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="5">
-        <v>4133.458315500411</v>
+        <v>4233.396613305767</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -31020,7 +31020,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="5">
-        <v>6167.26293274914</v>
+        <v>4299.622723462046</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -31028,7 +31028,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="5">
-        <v>6015.743831239097</v>
+        <v>5888.147467399066</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -31036,7 +31036,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="5">
-        <v>3928.127681045955</v>
+        <v>5721.855824861277</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -31044,7 +31044,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="5">
-        <v>4918.353184909413</v>
+        <v>4458.183920144453</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -31052,7 +31052,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="5">
-        <v>5639.319317590871</v>
+        <v>5313.606223269481</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -31060,7 +31060,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="5">
-        <v>4998.210091192235</v>
+        <v>5050.058298860303</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -31068,7 +31068,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="5">
-        <v>6013.187818467688</v>
+        <v>5950.902437202804</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -31076,7 +31076,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="5">
-        <v>5369.612318423045</v>
+        <v>3843.216854473859</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -31084,7 +31084,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="5">
-        <v>5290.967027865286</v>
+        <v>5118.287470445062</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -31092,7 +31092,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="5">
-        <v>5301.586475464182</v>
+        <v>4876.687277074835</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -31100,7 +31100,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="5">
-        <v>5454.881079744978</v>
+        <v>4952.938699948424</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -31108,7 +31108,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="5">
-        <v>6397.227238327331</v>
+        <v>4113.538513792768</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -31116,7 +31116,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="5">
-        <v>5000.317367229693</v>
+        <v>4225.30056559277</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -31124,7 +31124,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="5">
-        <v>4863.315206370756</v>
+        <v>4232.14886880449</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -31132,7 +31132,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="5">
-        <v>5445.176876768343</v>
+        <v>5920.264800447783</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -31140,7 +31140,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="5">
-        <v>4449.072131659006</v>
+        <v>5126.314330486873</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -31148,7 +31148,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="5">
-        <v>5002.008448316748</v>
+        <v>6094.739040382087</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -31156,7 +31156,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="5">
-        <v>6741.059521666746</v>
+        <v>5850.870493818635</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -31164,7 +31164,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="5">
-        <v>5467.610546505385</v>
+        <v>4473.67019408797</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -31172,7 +31172,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="5">
-        <v>3886.806507065847</v>
+        <v>4929.001002949813</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -31180,7 +31180,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="5">
-        <v>5415.545922890975</v>
+        <v>4209.87498597849</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -31188,7 +31188,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="5">
-        <v>5278.642222771274</v>
+        <v>5241.421448615872</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -31196,7 +31196,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="5">
-        <v>4838.442440970677</v>
+        <v>4199.747037970037</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -31204,7 +31204,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="5">
-        <v>3789.561749980788</v>
+        <v>4736.14190853149</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -31212,7 +31212,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="5">
-        <v>3875.399128834471</v>
+        <v>4665.577996101127</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -31220,7 +31220,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="5">
-        <v>4846.054628454451</v>
+        <v>4680.557789024328</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -31228,7 +31228,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="5">
-        <v>3798.183199000521</v>
+        <v>4104.327967310699</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -31236,7 +31236,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="5">
-        <v>5033.833490065887</v>
+        <v>5550.382789976756</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -31244,7 +31244,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="5">
-        <v>4279.281975244495</v>
+        <v>6045.689295316302</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -31252,7 +31252,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="5">
-        <v>4508.785434649561</v>
+        <v>4989.473098580272</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -31260,7 +31260,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="5">
-        <v>5605.260099380319</v>
+        <v>4215.957305296962</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -31268,7 +31268,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="5">
-        <v>6081.830985115918</v>
+        <v>5027.26827653536</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -31276,7 +31276,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="5">
-        <v>5530.193982620966</v>
+        <v>6819.679320805286</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -31284,7 +31284,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="5">
-        <v>5615.503474110988</v>
+        <v>6264.150077503666</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -31292,7 +31292,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="5">
-        <v>5870.462813490351</v>
+        <v>5976.51867015043</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -31300,7 +31300,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="5">
-        <v>6026.263234301958</v>
+        <v>4112.689155669572</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -31308,7 +31308,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="5">
-        <v>5896.845082756508</v>
+        <v>5654.626573759067</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -31316,7 +31316,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="5">
-        <v>4455.575592938494</v>
+        <v>5845.415643953871</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -31324,7 +31324,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="5">
-        <v>5533.061184154118</v>
+        <v>5030.667896869556</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -31332,7 +31332,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="5">
-        <v>4194.457181258989</v>
+        <v>5133.016688892168</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -31340,7 +31340,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="5">
-        <v>5447.915338598285</v>
+        <v>4206.94668904601</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -31348,7 +31348,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="5">
-        <v>5347.636947101075</v>
+        <v>5563.137550206501</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -31356,7 +31356,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="5">
-        <v>4005.138368894074</v>
+        <v>5244.000427650589</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -31364,7 +31364,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="5">
-        <v>5898.348226918223</v>
+        <v>5578.473064192144</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -31372,7 +31372,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="5">
-        <v>4941.995138978422</v>
+        <v>4605.514215474901</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -31380,7 +31380,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="5">
-        <v>4648.564946629354</v>
+        <v>4297.991875138933</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -31388,7 +31388,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="5">
-        <v>6122.089398344352</v>
+        <v>5257.125566852361</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -31396,7 +31396,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="5">
-        <v>3722.138499238487</v>
+        <v>4239.474230770978</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -31404,7 +31404,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="5">
-        <v>6450.32263511301</v>
+        <v>4382.860347728644</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -31412,7 +31412,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="5">
-        <v>6059.455181471834</v>
+        <v>5808.02877718705</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -31420,7 +31420,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="5">
-        <v>6132.742816970468</v>
+        <v>3973.52274814246</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -31428,7 +31428,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="5">
-        <v>4060.105253899825</v>
+        <v>6445.486532862147</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -31436,7 +31436,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="5">
-        <v>4014.172333660633</v>
+        <v>4823.825576696694</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -31444,7 +31444,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="5">
-        <v>5795.137125114827</v>
+        <v>6517.771097913088</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -31452,7 +31452,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="5">
-        <v>5755.837482464767</v>
+        <v>4998.691571804411</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -31460,7 +31460,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="5">
-        <v>5501.111075746495</v>
+        <v>5458.35324191374</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -31468,7 +31468,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="5">
-        <v>6491.335076186076</v>
+        <v>4761.492526357237</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -31476,7 +31476,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="5">
-        <v>5994.17580774151</v>
+        <v>4226.426404389786</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -31484,7 +31484,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="5">
-        <v>4815.244624643654</v>
+        <v>5314.684803190265</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -31492,7 +31492,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="5">
-        <v>3989.273817040418</v>
+        <v>5765.530059857293</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -31500,7 +31500,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="5">
-        <v>4164.067167252079</v>
+        <v>5420.808881978563</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -31508,7 +31508,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="5">
-        <v>5223.822911124284</v>
+        <v>6482.528076500684</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -31516,7 +31516,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="5">
-        <v>5962.334497465016</v>
+        <v>6077.480935223954</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -31524,7 +31524,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="5">
-        <v>5443.368344996342</v>
+        <v>4722.998155356771</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -31532,7 +31532,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="5">
-        <v>4270.195412143766</v>
+        <v>5017.656468710178</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -31540,7 +31540,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="5">
-        <v>6228.061679920137</v>
+        <v>5292.423201585918</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -31548,7 +31548,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="5">
-        <v>4606.361691391089</v>
+        <v>5997.099163555114</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -31556,7 +31556,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="5">
-        <v>5635.578553558428</v>
+        <v>5795.598039218004</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -31564,7 +31564,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="5">
-        <v>5599.329820015751</v>
+        <v>5049.131202935875</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -31572,7 +31572,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="5">
-        <v>5762.51005020191</v>
+        <v>5464.661827436822</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -31580,7 +31580,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="5">
-        <v>5274.265053932107</v>
+        <v>4540.768362512085</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -31588,7 +31588,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="5">
-        <v>4929.280849734798</v>
+        <v>5422.609540396808</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -31596,7 +31596,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="5">
-        <v>5295.935522873213</v>
+        <v>4494.947399123578</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -31604,7 +31604,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="5">
-        <v>5322.192562916978</v>
+        <v>5384.900327023417</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -31612,7 +31612,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="5">
-        <v>6245.951017045319</v>
+        <v>5005.6284544481</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -31620,7 +31620,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="5">
-        <v>5447.198638972061</v>
+        <v>6285.082771233026</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -31628,7 +31628,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="5">
-        <v>6437.598457561899</v>
+        <v>4010.734852407295</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -31636,7 +31636,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="5">
-        <v>6353.04057522787</v>
+        <v>6382.69655762479</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -31644,7 +31644,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="5">
-        <v>4370.43666519427</v>
+        <v>4637.658873299552</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -31652,7 +31652,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="5">
-        <v>4325.211884380105</v>
+        <v>4921.454526680561</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -31660,7 +31660,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="5">
-        <v>4006.363272839638</v>
+        <v>6074.687728197383</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -31668,7 +31668,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="5">
-        <v>4537.20128756278</v>
+        <v>6222.385772777404</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -31676,7 +31676,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="5">
-        <v>4177.427644374006</v>
+        <v>5243.995275367961</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -31684,7 +31684,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="5">
-        <v>4522.261957534374</v>
+        <v>5767.340703841475</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -31692,7 +31692,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="5">
-        <v>5184.901481472229</v>
+        <v>4836.741283825821</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -31700,7 +31700,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="5">
-        <v>5279.450255364455</v>
+        <v>4762.750651311847</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -31708,7 +31708,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="5">
-        <v>5161.290331616363</v>
+        <v>4098.336237604688</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -31716,7 +31716,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="5">
-        <v>4040.042021180835</v>
+        <v>4491.254923876065</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -31724,7 +31724,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="5">
-        <v>4587.956963733336</v>
+        <v>6398.837041095369</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -31732,7 +31732,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="5">
-        <v>4704.960511160251</v>
+        <v>4789.58539998953</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -31740,7 +31740,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="5">
-        <v>4415.40466401877</v>
+        <v>5512.021990254929</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -31748,7 +31748,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="5">
-        <v>5570.251821135034</v>
+        <v>4821.346190126807</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -31756,7 +31756,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="5">
-        <v>4788.221471220741</v>
+        <v>3987.673418025297</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -31764,7 +31764,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="5">
-        <v>5266.398047557348</v>
+        <v>3904.161911844623</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -31772,7 +31772,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="5">
-        <v>5604.433471899682</v>
+        <v>5847.152523822229</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -31780,7 +31780,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="5">
-        <v>6331.73363925592</v>
+        <v>6330.501690820228</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -31788,7 +31788,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="5">
-        <v>5040.195765631844</v>
+        <v>4769.827352373945</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -31796,7 +31796,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="5">
-        <v>4573.413728861364</v>
+        <v>5381.367016666684</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -31804,7 +31804,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="5">
-        <v>4048.83265355308</v>
+        <v>4354.234072359499</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -31812,7 +31812,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="5">
-        <v>5341.786941743721</v>
+        <v>6040.603887100602</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -31820,7 +31820,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="5">
-        <v>4994.893023586994</v>
+        <v>6620.412977159899</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -31828,7 +31828,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="5">
-        <v>5887.20567615922</v>
+        <v>5626.404045409266</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -31836,7 +31836,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="5">
-        <v>4531.817679680347</v>
+        <v>5659.667042223381</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -31844,7 +31844,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="5">
-        <v>5585.954287918028</v>
+        <v>4423.874000729251</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -31852,7 +31852,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="5">
-        <v>5285.871117032604</v>
+        <v>4910.231093249092</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -31860,7 +31860,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="5">
-        <v>5879.986416668924</v>
+        <v>4022.115331516534</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -31868,7 +31868,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="5">
-        <v>6013.179358499615</v>
+        <v>5183.406282171426</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -31876,7 +31876,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="5">
-        <v>5690.804784294481</v>
+        <v>4505.06258904231</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -31884,7 +31884,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="5">
-        <v>4076.830741913193</v>
+        <v>5489.382193404536</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -31892,7 +31892,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="5">
-        <v>5400.605350455338</v>
+        <v>5216.659073030246</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -31900,7 +31900,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="5">
-        <v>6029.05009382398</v>
+        <v>4336.065758126794</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -31908,7 +31908,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="5">
-        <v>3870.499373203544</v>
+        <v>5407.769784183041</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -31916,7 +31916,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="5">
-        <v>6405.779889468932</v>
+        <v>6312.363663810902</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -31924,7 +31924,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="5">
-        <v>6029.511952231695</v>
+        <v>5378.137311645791</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -31932,7 +31932,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="5">
-        <v>5162.712782096079</v>
+        <v>4146.65068847438</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -31940,7 +31940,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="5">
-        <v>4101.961039369017</v>
+        <v>4613.922842400501</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -31948,7 +31948,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="5">
-        <v>3758.852641987065</v>
+        <v>4961.79985337144</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -31956,7 +31956,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="5">
-        <v>5959.608002378831</v>
+        <v>4657.075860693697</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -31964,7 +31964,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="5">
-        <v>4505.383147335479</v>
+        <v>5276.675799903979</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -31972,7 +31972,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="5">
-        <v>5964.648239672004</v>
+        <v>4788.940521527663</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -31980,7 +31980,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="5">
-        <v>5859.203206299142</v>
+        <v>4414.423771860669</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -31988,7 +31988,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="5">
-        <v>4289.249851851096</v>
+        <v>5809.445362642713</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -31996,7 +31996,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="5">
-        <v>5903.157890501928</v>
+        <v>5465.173414188243</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -32004,7 +32004,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="5">
-        <v>4487.81399435396</v>
+        <v>5467.270795978599</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -32012,7 +32012,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="5">
-        <v>5782.013831733896</v>
+        <v>4320.120616232535</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -32020,7 +32020,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="5">
-        <v>5351.252980569212</v>
+        <v>6303.739324400011</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -32028,7 +32028,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="5">
-        <v>5741.755414857284</v>
+        <v>5158.871924012369</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -32036,7 +32036,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="5">
-        <v>4629.955283498572</v>
+        <v>3762.096287973452</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -32044,7 +32044,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="5">
-        <v>4187.577200010192</v>
+        <v>4521.192708630813</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -32052,7 +32052,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="5">
-        <v>4839.629573831086</v>
+        <v>5299.798805728554</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -32060,7 +32060,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="5">
-        <v>4671.294238483764</v>
+        <v>5392.183378233244</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -32068,7 +32068,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="5">
-        <v>3677.170475771127</v>
+        <v>4602.750976048005</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -32076,7 +32076,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="5">
-        <v>5653.407771630248</v>
+        <v>4916.244701138242</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -32084,7 +32084,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="5">
-        <v>6356.741083702383</v>
+        <v>4851.713516990915</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -32092,7 +32092,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="5">
-        <v>4925.933673231786</v>
+        <v>4223.571909228601</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -32100,7 +32100,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="5">
-        <v>5046.511990271245</v>
+        <v>5182.591875652952</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -32108,7 +32108,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="5">
-        <v>5654.72925361561</v>
+        <v>4724.247309441322</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -32116,7 +32116,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="5">
-        <v>4780.425857886081</v>
+        <v>5460.255980737459</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -32124,7 +32124,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="5">
-        <v>5820.808009261069</v>
+        <v>5099.368907951089</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -32132,7 +32132,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="5">
-        <v>5894.826810357784</v>
+        <v>5375.380990757997</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -32140,7 +32140,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="5">
-        <v>5921.613348434955</v>
+        <v>5110.861203995958</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -32148,7 +32148,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="5">
-        <v>5856.233751232277</v>
+        <v>5734.686423143353</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -32156,7 +32156,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="5">
-        <v>6432.220606869868</v>
+        <v>4009.594764121447</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -32164,7 +32164,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="5">
-        <v>6525.800194896186</v>
+        <v>5656.673885122834</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -32172,7 +32172,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="5">
-        <v>4788.707765338551</v>
+        <v>6371.800890918202</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -32180,7 +32180,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="5">
-        <v>4915.94680942688</v>
+        <v>4028.085348300491</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -32188,7 +32188,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="5">
-        <v>5017.930322991778</v>
+        <v>4654.916721862695</v>
       </c>
     </row>
   </sheetData>
